--- a/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
+++ b/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name=" Background and Preparation" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint_3 Test results_DK" sheetId="6" r:id="rId2"/>
     <sheet name="Sprint_3 Test results_NL" sheetId="5" r:id="rId3"/>
-    <sheet name="Sprint_3 Test results_SE" sheetId="7" r:id="rId4"/>
+    <sheet name="Sprint_3 Test results_NO" sheetId="8" r:id="rId4"/>
+    <sheet name="Sprint_3 Test results_SE" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc403991786" localSheetId="0">' Background and Preparation'!$A$3</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="125">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -487,6 +488,24 @@
   </si>
   <si>
     <t>Sweden</t>
+  </si>
+  <si>
+    <t>Kari Rudjord</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Almost everything in place now.  Remains to test two things that Bert is working on+B7: rules for e-mailadress and emphasis (to separate bild and italic when they appear together)</t>
+  </si>
+  <si>
+    <t>Grade 1 and 2 correct, just a few minor errors that Ammar will correct. My proofreader made no comments on hyphenation i contracted braille.</t>
+  </si>
+  <si>
+    <t>The hyphenation works, but I want it to hyphenate more. I think Bert/Ammar is working on a solution.</t>
+  </si>
+  <si>
+    <t>To be improved</t>
   </si>
 </sst>
 </file>
@@ -1175,9 +1194,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2157,8 +2176,8 @@
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="6" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2695,7 +2714,7 @@
       <c r="B61" s="11"/>
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3" s="6" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" s="6" customFormat="1" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>0</v>
       </c>
@@ -2795,7 +2814,7 @@
       </c>
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>1</v>
       </c>
@@ -2860,7 +2879,7 @@
       <c r="B80" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="40" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2986,7 +3005,7 @@
       <c r="B95" s="11"/>
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>0</v>
       </c>
@@ -3138,9 +3157,10 @@
     <hyperlink ref="C54" r:id="rId20"/>
     <hyperlink ref="C91" r:id="rId21"/>
     <hyperlink ref="C19" r:id="rId22"/>
+    <hyperlink ref="C80" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -3150,10 +3170,10 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="40.5546875" style="12" customWidth="1"/>
@@ -3182,7 +3202,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>31</v>
@@ -3199,7 +3219,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>30</v>
@@ -3215,8 +3235,8 @@
       <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="67">
-        <v>42264</v>
+      <c r="B5" s="64">
+        <v>42270</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>74</v>
@@ -3342,16 +3362,18 @@
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="B19" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="C20"/>
     </row>
     <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -3535,14 +3557,18 @@
       <c r="A43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="10"/>
+      <c r="B43" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="C43" s="8"/>
     </row>
     <row r="44" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="10"/>
+      <c r="B44" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="C44" s="8"/>
     </row>
     <row r="45" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -3658,14 +3684,18 @@
       <c r="A58" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="10"/>
+      <c r="B58" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="C58" s="8"/>
     </row>
     <row r="59" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="10"/>
+      <c r="B59" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="C59" s="8"/>
     </row>
     <row r="60" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -3749,18 +3779,14 @@
       <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="B69" s="10"/>
       <c r="C69" s="8"/>
     </row>
     <row r="70" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="B70" s="10"/>
       <c r="C70" s="8"/>
     </row>
     <row r="71" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -3845,14 +3871,14 @@
       <c r="A80" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="8"/>
     </row>
     <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="10"/>
+      <c r="B81" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="C81" s="8"/>
     </row>
     <row r="82" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -3954,7 +3980,9 @@
       <c r="A93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="10"/>
+      <c r="B93" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="C93" s="8"/>
     </row>
     <row r="94" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -4123,4 +4151,986 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="67">
+        <v>42264</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+    </row>
+    <row r="7" spans="1:5" s="41" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+    </row>
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="39"/>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+    </row>
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="40"/>
+    </row>
+    <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+    </row>
+    <row r="46" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="1:3" s="6" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+    </row>
+    <row r="61" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="1:3" s="6" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="39"/>
+    </row>
+    <row r="64" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="1:3" s="6" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="8"/>
+    </row>
+    <row r="70" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="8"/>
+    </row>
+    <row r="71" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+    </row>
+    <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="8"/>
+    </row>
+    <row r="74" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="39"/>
+    </row>
+    <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="8"/>
+    </row>
+    <row r="76" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="8"/>
+    </row>
+    <row r="77" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="8"/>
+    </row>
+    <row r="82" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+    </row>
+    <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="7"/>
+    </row>
+    <row r="84" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="8"/>
+    </row>
+    <row r="85" spans="1:5" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" s="39"/>
+    </row>
+    <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="8"/>
+    </row>
+    <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" s="6" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" s="63"/>
+    </row>
+    <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="5"/>
+      <c r="B90" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="5"/>
+      <c r="B91" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="8"/>
+    </row>
+    <row r="93" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="8"/>
+    </row>
+    <row r="94" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+    </row>
+    <row r="95" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="7"/>
+    </row>
+    <row r="96" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="8"/>
+    </row>
+    <row r="97" spans="1:3" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" s="39"/>
+    </row>
+    <row r="98" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="8"/>
+    </row>
+    <row r="99" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="8"/>
+    </row>
+    <row r="100" spans="1:3" s="6" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="30"/>
+    </row>
+    <row r="102" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5"/>
+      <c r="B102" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" s="30"/>
+    </row>
+    <row r="103" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="5"/>
+      <c r="B103" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103" s="30"/>
+    </row>
+    <row r="104" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="8"/>
+    </row>
+    <row r="105" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="8"/>
+    </row>
+    <row r="106" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="46"/>
+      <c r="C106" s="46"/>
+    </row>
+    <row r="107" spans="1:3" s="47" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B107" s="48"/>
+      <c r="C107" s="49"/>
+    </row>
+    <row r="108" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="50"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="52"/>
+    </row>
+    <row r="109" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="50"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="54"/>
+    </row>
+    <row r="110" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="10"/>
+      <c r="C110" s="8"/>
+    </row>
+    <row r="111" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="10"/>
+      <c r="C111" s="8"/>
+    </row>
+    <row r="112" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="5"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="31"/>
+    </row>
+    <row r="113" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="5"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="30"/>
+    </row>
+    <row r="114" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="10"/>
+      <c r="C114" s="8"/>
+    </row>
+    <row r="115" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="10"/>
+      <c r="C115" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C67" r:id="rId1"/>
+    <hyperlink ref="C13" r:id="rId2"/>
+    <hyperlink ref="C15" r:id="rId3"/>
+    <hyperlink ref="C16" r:id="rId4"/>
+    <hyperlink ref="C17" r:id="rId5"/>
+    <hyperlink ref="C18" r:id="rId6"/>
+    <hyperlink ref="C41" r:id="rId7"/>
+    <hyperlink ref="C42" r:id="rId8"/>
+    <hyperlink ref="C52" r:id="rId9"/>
+    <hyperlink ref="C55" r:id="rId10"/>
+    <hyperlink ref="C56" r:id="rId11"/>
+    <hyperlink ref="C57" r:id="rId12"/>
+    <hyperlink ref="C78" r:id="rId13"/>
+    <hyperlink ref="C89" r:id="rId14"/>
+    <hyperlink ref="E5" r:id="rId15"/>
+    <hyperlink ref="C90" r:id="rId16"/>
+    <hyperlink ref="E4" r:id="rId17"/>
+    <hyperlink ref="E3" r:id="rId18"/>
+    <hyperlink ref="C53" r:id="rId19"/>
+    <hyperlink ref="C54" r:id="rId20"/>
+    <hyperlink ref="C91" r:id="rId21"/>
+    <hyperlink ref="C68" r:id="rId22"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+</worksheet>
 </file>
--- a/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
+++ b/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="127">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -506,6 +506,12 @@
   </si>
   <si>
     <t>To be improved</t>
+  </si>
+  <si>
+    <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_3/NO/Test.PEF.4.4.55.whitespace.pef</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NO/Test.PEF.4.4.54.whitespace.pef</t>
   </si>
 </sst>
 </file>
@@ -4158,8 +4164,8 @@
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <pane ySplit="6" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4838,7 +4844,7 @@
         <v>65</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4931,7 +4937,7 @@
         <v>65</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5119,18 +5125,16 @@
     <hyperlink ref="C55" r:id="rId10"/>
     <hyperlink ref="C56" r:id="rId11"/>
     <hyperlink ref="C57" r:id="rId12"/>
-    <hyperlink ref="C78" r:id="rId13"/>
-    <hyperlink ref="C89" r:id="rId14"/>
-    <hyperlink ref="E5" r:id="rId15"/>
-    <hyperlink ref="C90" r:id="rId16"/>
-    <hyperlink ref="E4" r:id="rId17"/>
-    <hyperlink ref="E3" r:id="rId18"/>
-    <hyperlink ref="C53" r:id="rId19"/>
-    <hyperlink ref="C54" r:id="rId20"/>
-    <hyperlink ref="C91" r:id="rId21"/>
-    <hyperlink ref="C68" r:id="rId22"/>
+    <hyperlink ref="E5" r:id="rId13"/>
+    <hyperlink ref="C90" r:id="rId14"/>
+    <hyperlink ref="E4" r:id="rId15"/>
+    <hyperlink ref="E3" r:id="rId16"/>
+    <hyperlink ref="C53" r:id="rId17"/>
+    <hyperlink ref="C54" r:id="rId18"/>
+    <hyperlink ref="C91" r:id="rId19"/>
+    <hyperlink ref="C68" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
+++ b/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name=" Background and Preparation" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="128">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NO/Test.PEF.4.4.54.whitespace.pef</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NO/Test.PEF.4.3.34.Norwegian%20uncontracted%20braille.2.pef</t>
   </si>
 </sst>
 </file>
@@ -778,15 +781,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1202,7 +1207,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,7 +1247,7 @@
       <c r="D3" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="65" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1259,7 +1264,7 @@
       <c r="D4" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="65" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1267,7 +1272,7 @@
       <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="67">
         <v>42263</v>
       </c>
       <c r="C5" s="58" t="s">
@@ -1421,7 +1426,7 @@
       <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="64" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="8"/>
@@ -2183,7 +2188,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2223,7 +2228,7 @@
       <c r="D3" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="65" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2240,7 +2245,7 @@
       <c r="D4" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="65" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2248,7 +2253,7 @@
       <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="66">
         <v>42264</v>
       </c>
       <c r="C5" s="58" t="s">
@@ -2406,7 +2411,7 @@
       <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="64" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="8"/>
@@ -3172,11 +3177,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3216,7 +3221,7 @@
       <c r="D3" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="65" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3233,7 +3238,7 @@
       <c r="D4" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="65" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3241,7 +3246,7 @@
       <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="67">
         <v>42270</v>
       </c>
       <c r="C5" s="58" t="s">
@@ -3345,817 +3350,807 @@
         <v>65</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="B18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>68</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="4" t="s">
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="39"/>
+      <c r="C23" s="39"/>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="10" t="s">
+    <row r="26" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>93</v>
+      <c r="C27" s="30" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>76</v>
-      </c>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-    </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="4" t="s">
+    <row r="31" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+    </row>
+    <row r="32" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="11"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" s="6" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+    <row r="37" spans="1:3" s="6" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B37" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C37" s="59" t="s">
         <v>99</v>
       </c>
     </row>
+    <row r="38" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="40"/>
+    </row>
     <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="B39" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="40"/>
+        <v>62</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="B42" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>67</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C42" s="8"/>
     </row>
     <row r="43" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-    </row>
-    <row r="46" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="4" t="s">
+    <row r="44" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+    </row>
+    <row r="45" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="11"/>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C47" s="8"/>
     </row>
     <row r="48" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C48" s="8"/>
     </row>
     <row r="49" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="1:3" s="6" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+    <row r="50" spans="1:3" s="6" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="60" t="s">
+      <c r="B50" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C50" s="60" t="s">
         <v>98</v>
       </c>
     </row>
+    <row r="51" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="B52" s="10" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="B57" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>68</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C57" s="8"/>
     </row>
     <row r="58" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" s="8"/>
-    </row>
-    <row r="60" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-    </row>
-    <row r="61" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="4" t="s">
+    <row r="59" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+    </row>
+    <row r="60" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="7"/>
-    </row>
-    <row r="62" spans="1:3" s="6" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="11"/>
+      <c r="C60" s="7"/>
+    </row>
+    <row r="61" spans="1:3" s="6" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" s="8"/>
-    </row>
-    <row r="63" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="39"/>
+      <c r="C62" s="39"/>
+    </row>
+    <row r="63" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="8"/>
     </row>
     <row r="64" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" s="8"/>
-    </row>
-    <row r="66" spans="1:3" s="6" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+    <row r="65" spans="1:3" s="6" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B65" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C66" s="59" t="s">
+      <c r="C65" s="59" t="s">
         <v>100</v>
       </c>
     </row>
+    <row r="66" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="67" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" s="40" t="s">
-        <v>51</v>
+      <c r="B67" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="55" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" s="55" t="s">
-        <v>49</v>
-      </c>
+      <c r="A68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="8"/>
     </row>
     <row r="69" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="8"/>
-    </row>
-    <row r="71" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-    </row>
-    <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="4" t="s">
+    <row r="70" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+    </row>
+    <row r="71" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="7"/>
-    </row>
-    <row r="73" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="11"/>
+      <c r="C71" s="7"/>
+    </row>
+    <row r="72" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="8"/>
+    </row>
+    <row r="73" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C73" s="8"/>
-    </row>
-    <row r="74" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B73" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="39"/>
+      <c r="C73" s="39"/>
+    </row>
+    <row r="74" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="8"/>
     </row>
     <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" s="8"/>
-    </row>
-    <row r="77" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C77" s="59" t="s">
-        <v>93</v>
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A78" s="5"/>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>76</v>
+      <c r="A79" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B80" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C81" s="8"/>
-    </row>
-    <row r="82" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-    </row>
-    <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="4" t="s">
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+    </row>
+    <row r="82" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="7"/>
-    </row>
-    <row r="84" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="11"/>
+      <c r="C82" s="7"/>
+    </row>
+    <row r="83" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="8"/>
+    </row>
+    <row r="84" spans="1:5" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C84" s="8"/>
-    </row>
-    <row r="85" spans="1:5" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="39"/>
+      <c r="C84" s="39"/>
+    </row>
+    <row r="85" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="8"/>
     </row>
     <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87" s="8"/>
-    </row>
-    <row r="88" spans="1:5" s="6" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" s="6" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" s="63"/>
+    </row>
+    <row r="88" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E88" s="63"/>
+        <v>65</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A89" s="5"/>
       <c r="B89" s="13" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="13" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
-      <c r="B91" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>90</v>
-      </c>
+      <c r="A91" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" s="8"/>
     </row>
     <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C93" s="8"/>
-    </row>
-    <row r="94" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-    </row>
-    <row r="95" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="4" t="s">
+    <row r="93" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+    </row>
+    <row r="94" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="7"/>
-    </row>
-    <row r="96" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="11"/>
+      <c r="C94" s="7"/>
+    </row>
+    <row r="95" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" s="8"/>
+    </row>
+    <row r="96" spans="1:5" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" s="8"/>
-    </row>
-    <row r="97" spans="1:3" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B96" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="39"/>
+      <c r="C96" s="39"/>
+    </row>
+    <row r="97" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="8"/>
     </row>
     <row r="98" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C99" s="8"/>
-    </row>
-    <row r="100" spans="1:3" s="6" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" s="6" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="59" t="s">
-        <v>102</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="30"/>
     </row>
     <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A101" s="5"/>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C101" s="30"/>
     </row>
     <row r="102" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C102" s="30"/>
     </row>
     <row r="103" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
-      <c r="B103" t="s">
-        <v>63</v>
-      </c>
-      <c r="C103" s="30"/>
+      <c r="A103" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="8"/>
     </row>
     <row r="104" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="8"/>
-    </row>
-    <row r="106" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="46"/>
-      <c r="C106" s="46"/>
-    </row>
-    <row r="107" spans="1:3" s="47" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B107" s="48"/>
-      <c r="C107" s="49"/>
+    <row r="105" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="46"/>
+      <c r="C105" s="46"/>
+    </row>
+    <row r="106" spans="1:3" s="47" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B106" s="48"/>
+      <c r="C106" s="49"/>
+    </row>
+    <row r="107" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="50"/>
+      <c r="B107" s="51"/>
+      <c r="C107" s="52"/>
     </row>
     <row r="108" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="50"/>
       <c r="B108" s="51"/>
-      <c r="C108" s="52"/>
-    </row>
-    <row r="109" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="50"/>
-      <c r="B109" s="51"/>
-      <c r="C109" s="54"/>
+      <c r="C108" s="54"/>
+    </row>
+    <row r="109" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="10"/>
+      <c r="C109" s="8"/>
     </row>
     <row r="110" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="10"/>
       <c r="C110" s="8"/>
     </row>
     <row r="111" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="10"/>
-      <c r="C111" s="8"/>
+      <c r="A111" s="5"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="31"/>
     </row>
     <row r="112" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="31"/>
-    </row>
-    <row r="113" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="5"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="30"/>
-    </row>
-    <row r="114" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="25"/>
+      <c r="C112" s="30"/>
+    </row>
+    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="10"/>
+      <c r="C113" s="8"/>
+    </row>
+    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="10"/>
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="10"/>
-      <c r="C115" s="8"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C67" r:id="rId1"/>
+    <hyperlink ref="C66" r:id="rId1"/>
     <hyperlink ref="C13" r:id="rId2"/>
     <hyperlink ref="C15" r:id="rId3"/>
-    <hyperlink ref="C16" r:id="rId4"/>
-    <hyperlink ref="C17" r:id="rId5"/>
-    <hyperlink ref="C18" r:id="rId6"/>
-    <hyperlink ref="C41" r:id="rId7"/>
-    <hyperlink ref="C42" r:id="rId8"/>
-    <hyperlink ref="C52" r:id="rId9"/>
-    <hyperlink ref="C55" r:id="rId10"/>
-    <hyperlink ref="C56" r:id="rId11"/>
-    <hyperlink ref="C57" r:id="rId12"/>
-    <hyperlink ref="C78" r:id="rId13"/>
+    <hyperlink ref="C17" r:id="rId4"/>
+    <hyperlink ref="C40" r:id="rId5"/>
+    <hyperlink ref="C41" r:id="rId6"/>
+    <hyperlink ref="C51" r:id="rId7"/>
+    <hyperlink ref="C54" r:id="rId8"/>
+    <hyperlink ref="C55" r:id="rId9"/>
+    <hyperlink ref="C56" r:id="rId10"/>
+    <hyperlink ref="C77" r:id="rId11"/>
+    <hyperlink ref="C88" r:id="rId12"/>
+    <hyperlink ref="E5" r:id="rId13"/>
     <hyperlink ref="C89" r:id="rId14"/>
-    <hyperlink ref="E5" r:id="rId15"/>
-    <hyperlink ref="C90" r:id="rId16"/>
-    <hyperlink ref="E4" r:id="rId17"/>
-    <hyperlink ref="E3" r:id="rId18"/>
-    <hyperlink ref="C53" r:id="rId19"/>
-    <hyperlink ref="C54" r:id="rId20"/>
-    <hyperlink ref="C91" r:id="rId21"/>
+    <hyperlink ref="E4" r:id="rId15"/>
+    <hyperlink ref="E3" r:id="rId16"/>
+    <hyperlink ref="C52" r:id="rId17"/>
+    <hyperlink ref="C53" r:id="rId18"/>
+    <hyperlink ref="C90" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -4163,9 +4158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4205,7 +4200,7 @@
       <c r="D3" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="65" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4222,7 +4217,7 @@
       <c r="D4" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="65" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4230,7 +4225,7 @@
       <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="66">
         <v>42264</v>
       </c>
       <c r="C5" s="58" t="s">
@@ -4384,7 +4379,7 @@
       <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="64" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="8"/>

--- a/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
+++ b/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="130">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -515,6 +515,12 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NO/Test.PEF.4.3.34.Norwegian%20uncontracted%20braille.2.pef</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NL/4.4.54/295593_Whitespace%204_4_54.pef</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NL/4.3.35C/289409_Boos%20boos%20boos%204_3_35C.pef</t>
   </si>
 </sst>
 </file>
@@ -3180,8 +3186,8 @@
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3445,7 +3451,7 @@
         <v>72</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3867,7 +3873,7 @@
         <v>72</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4148,9 +4154,11 @@
     <hyperlink ref="C52" r:id="rId17"/>
     <hyperlink ref="C53" r:id="rId18"/>
     <hyperlink ref="C90" r:id="rId19"/>
+    <hyperlink ref="C78" r:id="rId20"/>
+    <hyperlink ref="C27" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
+++ b/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name=" Background and Preparation" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="124">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -204,9 +204,6 @@
     <t>SE</t>
   </si>
   <si>
-    <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_2/DE/4.4.46%2C%204.4.47%2C%204.4.51%2C%204.4.52%2C%204.4.53/test_dtb.pef</t>
-  </si>
-  <si>
     <t>DE</t>
   </si>
   <si>
@@ -241,18 +238,12 @@
     <t xml:space="preserve">DE, DK, NO </t>
   </si>
   <si>
-    <t>https://github.com/snaekobbi/testing/tree/master/Test%20data/Sprint_1/DE/4.3.34%2C%204.3.37%2C%204.3.41</t>
-  </si>
-  <si>
     <t>DK</t>
   </si>
   <si>
     <t>FI</t>
   </si>
   <si>
-    <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_1/FI/4.3.34/fi-uncontracted.pef</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -271,9 +262,6 @@
     <t>NO (special words that are difficult to hyphen)</t>
   </si>
   <si>
-    <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_2/NO/4.4.54%2C%204.4.55/Test.PEF.4.4.54-55.Whitespace.pef</t>
-  </si>
-  <si>
     <t>NL</t>
   </si>
   <si>
@@ -284,12 +272,6 @@
   </si>
   <si>
     <t>v1.2</t>
-  </si>
-  <si>
-    <t>To be merged</t>
-  </si>
-  <si>
-    <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_2/DE/4.4.55/test_preserve_whitespace.pef</t>
   </si>
   <si>
     <t>Test Case 4.3:35C; Test for possibility to leave out capital signs in some products</t>
@@ -478,9 +460,6 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>4.4.46: Extra preceeding empty line for all paragraphs 4.4.47: Borders are OK, but extra preceeding empty line for all paragraphs.</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.4.46: fail. 4.4.47: fail. 4.4.52: pass. 4.4.53: pass. </t>
   </si>
   <si>
@@ -508,9 +487,6 @@
     <t>To be improved</t>
   </si>
   <si>
-    <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_3/NO/Test.PEF.4.4.55.whitespace.pef</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NO/Test.PEF.4.4.54.whitespace.pef</t>
   </si>
   <si>
@@ -521,6 +497,13 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NL/4.3.35C/289409_Boos%20boos%20boos%204_3_35C.pef</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NO/Test.PEF.4.4.55.whitespace.pef</t>
+  </si>
+  <si>
+    <t>4.4.46: Extra preceeding empty line for all paragraphs 
+4.4.47: Borders are OK, but extra preceeding empty line for all paragraphs.</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1163,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1213,7 +1196,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,16 +1228,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -1262,16 +1245,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -1282,11 +1265,11 @@
         <v>42263</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -1344,10 +1327,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1355,51 +1338,41 @@
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C13" s="40"/>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C15" s="40"/>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C17" s="40"/>
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>68</v>
-      </c>
+      <c r="C18" s="40"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -1423,7 +1396,7 @@
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="7"/>
@@ -1433,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C23" s="8"/>
     </row>
@@ -1442,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C24" s="39"/>
     </row>
@@ -1460,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C26" s="8"/>
     </row>
@@ -1469,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1480,11 +1453,9 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>76</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C28" s="30"/>
     </row>
     <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
@@ -1555,10 +1526,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1566,33 +1537,29 @@
         <v>5</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="40"/>
     </row>
     <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="40" t="s">
         <v>66</v>
       </c>
+      <c r="C41" s="40"/>
     </row>
     <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="40" t="s">
         <v>67</v>
       </c>
+      <c r="C42" s="40"/>
     </row>
     <row r="43" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
@@ -1660,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="60" t="s">
         <v>92</v>
-      </c>
-      <c r="C51" s="60" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1671,51 +1638,43 @@
         <v>5</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C52" s="40"/>
     </row>
     <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="40" t="s">
         <v>66</v>
       </c>
+      <c r="C55" s="40"/>
     </row>
     <row r="56" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="40" t="s">
         <v>67</v>
       </c>
+      <c r="C56" s="40"/>
     </row>
     <row r="57" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="40" t="s">
-        <v>68</v>
-      </c>
+      <c r="C57" s="40"/>
     </row>
     <row r="58" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
@@ -1783,10 +1742,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1794,19 +1753,15 @@
         <v>5</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" s="40" t="s">
         <v>51</v>
       </c>
+      <c r="C67" s="40"/>
     </row>
     <row r="68" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="55" t="s">
-        <v>49</v>
-      </c>
+      <c r="C68" s="55"/>
     </row>
     <row r="69" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
@@ -1828,7 +1783,7 @@
     </row>
     <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="7"/>
@@ -1838,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C73" s="8"/>
     </row>
@@ -1847,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C74" s="39"/>
     </row>
@@ -1865,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C76" s="8"/>
     </row>
@@ -1874,10 +1829,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C77" s="59" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1885,20 +1840,16 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C78" s="30"/>
     </row>
     <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>76</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C79" s="30"/>
     </row>
     <row r="80" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
@@ -1920,7 +1871,7 @@
     </row>
     <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="7"/>
@@ -1930,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C84" s="8"/>
     </row>
@@ -1939,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C85" s="39"/>
     </row>
@@ -1957,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C87" s="8"/>
     </row>
@@ -1966,10 +1917,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C88" s="59" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E88" s="63"/>
     </row>
@@ -1978,28 +1929,24 @@
         <v>5</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C89" s="30"/>
     </row>
     <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>77</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C90" s="30"/>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2007,7 +1954,7 @@
         <v>6</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C92" s="8"/>
     </row>
@@ -2016,7 +1963,7 @@
         <v>7</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C93" s="8"/>
     </row>
@@ -2063,7 +2010,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C99" s="8"/>
     </row>
@@ -2072,10 +2019,10 @@
         <v>4</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C100" s="59" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2083,21 +2030,21 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C101" s="30"/>
     </row>
     <row r="102" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C102" s="30"/>
     </row>
     <row r="103" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C103" s="30"/>
     </row>
@@ -2161,30 +2108,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C67" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="C15" r:id="rId3"/>
-    <hyperlink ref="C16" r:id="rId4"/>
-    <hyperlink ref="C17" r:id="rId5"/>
-    <hyperlink ref="C18" r:id="rId6"/>
-    <hyperlink ref="C41" r:id="rId7"/>
-    <hyperlink ref="C42" r:id="rId8"/>
-    <hyperlink ref="C52" r:id="rId9"/>
-    <hyperlink ref="C55" r:id="rId10"/>
-    <hyperlink ref="C56" r:id="rId11"/>
-    <hyperlink ref="C57" r:id="rId12"/>
-    <hyperlink ref="C78" r:id="rId13"/>
-    <hyperlink ref="C89" r:id="rId14"/>
-    <hyperlink ref="E5" r:id="rId15"/>
-    <hyperlink ref="C90" r:id="rId16"/>
-    <hyperlink ref="E4" r:id="rId17"/>
-    <hyperlink ref="E3" r:id="rId18"/>
-    <hyperlink ref="C53" r:id="rId19"/>
-    <hyperlink ref="C54" r:id="rId20"/>
-    <hyperlink ref="C91" r:id="rId21"/>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="C53" r:id="rId4"/>
+    <hyperlink ref="C54" r:id="rId5"/>
+    <hyperlink ref="C91" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2193,8 +2125,8 @@
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2226,16 +2158,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -2243,16 +2175,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -2263,11 +2195,11 @@
         <v>42264</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -2325,10 +2257,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2336,61 +2268,49 @@
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C13" s="40"/>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>82</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C15" s="40"/>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C17" s="40"/>
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="40"/>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>106</v>
+      <c r="B19" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2398,7 +2318,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C20"/>
     </row>
@@ -2408,7 +2328,7 @@
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="7"/>
@@ -2418,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C23" s="8"/>
     </row>
@@ -2427,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C24" s="39"/>
     </row>
@@ -2445,10 +2365,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>110</v>
+        <v>68</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
@@ -2456,10 +2376,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2467,10 +2387,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2488,7 +2408,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C31" s="8"/>
     </row>
@@ -2544,10 +2464,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2555,33 +2475,27 @@
         <v>5</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="40"/>
     </row>
     <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>85</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C40" s="40"/>
     </row>
     <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="40" t="s">
         <v>66</v>
       </c>
+      <c r="C41" s="40"/>
     </row>
     <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="40" t="s">
         <v>67</v>
       </c>
+      <c r="C42" s="40"/>
     </row>
     <row r="43" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
@@ -2649,10 +2563,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="60" t="s">
         <v>92</v>
-      </c>
-      <c r="C51" s="60" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2660,51 +2574,39 @@
         <v>5</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C52" s="40"/>
     </row>
     <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>86</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C53" s="40"/>
     </row>
     <row r="54" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="40" t="s">
-        <v>87</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C54" s="40"/>
     </row>
     <row r="55" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="40" t="s">
         <v>66</v>
       </c>
+      <c r="C55" s="40"/>
     </row>
     <row r="56" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="40" t="s">
         <v>67</v>
       </c>
+      <c r="C56" s="40"/>
     </row>
     <row r="57" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="40" t="s">
-        <v>68</v>
-      </c>
+      <c r="C57" s="40"/>
     </row>
     <row r="58" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
@@ -2772,10 +2674,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2783,19 +2685,15 @@
         <v>5</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" s="40" t="s">
         <v>51</v>
       </c>
+      <c r="C67" s="40"/>
     </row>
     <row r="68" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="55" t="s">
-        <v>49</v>
-      </c>
+      <c r="C68" s="55"/>
     </row>
     <row r="69" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
@@ -2817,7 +2715,7 @@
     </row>
     <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="7"/>
@@ -2827,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C73" s="8"/>
     </row>
@@ -2836,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C74" s="39"/>
     </row>
@@ -2854,7 +2752,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C76" s="8"/>
     </row>
@@ -2863,10 +2761,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C77" s="59" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2874,19 +2772,17 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C78" s="30"/>
     </row>
     <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2894,10 +2790,10 @@
         <v>6</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2905,7 +2801,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C81" s="8"/>
     </row>
@@ -2915,7 +2811,7 @@
     </row>
     <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="7"/>
@@ -2925,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C84" s="8"/>
     </row>
@@ -2934,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C85" s="39"/>
     </row>
@@ -2952,7 +2848,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C87" s="8"/>
     </row>
@@ -2961,10 +2857,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C88" s="59" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E88" s="63"/>
     </row>
@@ -2973,29 +2869,23 @@
         <v>5</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C89" s="30"/>
     </row>
     <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>77</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C90" s="30"/>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>90</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C91" s="30"/>
     </row>
     <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
@@ -3054,7 +2944,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C99" s="8"/>
     </row>
@@ -3063,10 +2953,10 @@
         <v>4</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C100" s="59" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3074,21 +2964,21 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C101" s="30"/>
     </row>
     <row r="102" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C102" s="30"/>
     </row>
     <row r="103" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C103" s="30"/>
     </row>
@@ -3152,32 +3042,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C67" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="C15" r:id="rId3"/>
-    <hyperlink ref="C16" r:id="rId4"/>
-    <hyperlink ref="C17" r:id="rId5"/>
-    <hyperlink ref="C18" r:id="rId6"/>
-    <hyperlink ref="C41" r:id="rId7"/>
-    <hyperlink ref="C42" r:id="rId8"/>
-    <hyperlink ref="C52" r:id="rId9"/>
-    <hyperlink ref="C55" r:id="rId10"/>
-    <hyperlink ref="C56" r:id="rId11"/>
-    <hyperlink ref="C57" r:id="rId12"/>
-    <hyperlink ref="C78" r:id="rId13"/>
-    <hyperlink ref="C89" r:id="rId14"/>
-    <hyperlink ref="E5" r:id="rId15"/>
-    <hyperlink ref="C90" r:id="rId16"/>
-    <hyperlink ref="E4" r:id="rId17"/>
-    <hyperlink ref="E3" r:id="rId18"/>
-    <hyperlink ref="C53" r:id="rId19"/>
-    <hyperlink ref="C54" r:id="rId20"/>
-    <hyperlink ref="C91" r:id="rId21"/>
-    <hyperlink ref="C19" r:id="rId22"/>
-    <hyperlink ref="C80" r:id="rId23"/>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="C19" r:id="rId4"/>
+    <hyperlink ref="C80" r:id="rId5"/>
+    <hyperlink ref="C26" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3185,9 +3058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3219,16 +3092,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -3236,16 +3109,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -3256,11 +3129,11 @@
         <v>42270</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -3318,10 +3191,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3329,50 +3202,42 @@
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C13" s="40"/>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>82</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C15" s="40"/>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>68</v>
-      </c>
+      <c r="C17" s="40"/>
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C18" s="8"/>
     </row>
@@ -3381,7 +3246,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C19"/>
     </row>
@@ -3391,7 +3256,7 @@
     </row>
     <row r="21" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="7"/>
@@ -3401,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C22" s="8"/>
     </row>
@@ -3410,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C23" s="39"/>
     </row>
@@ -3428,7 +3293,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C25" s="8"/>
     </row>
@@ -3437,10 +3302,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3448,11 +3313,9 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>129</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C27" s="30"/>
     </row>
     <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
@@ -3523,10 +3386,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3534,32 +3397,30 @@
         <v>5</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="40"/>
     </row>
     <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>85</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C39" s="40"/>
     </row>
     <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3567,7 +3428,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C42" s="8"/>
     </row>
@@ -3576,7 +3437,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C43" s="8"/>
     </row>
@@ -3632,10 +3493,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="60" t="s">
         <v>92</v>
-      </c>
-      <c r="C50" s="60" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3643,58 +3504,50 @@
         <v>5</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C51" s="40"/>
     </row>
     <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>86</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C52" s="40"/>
     </row>
     <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>87</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C53" s="40"/>
     </row>
     <row r="54" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="40" t="s">
-        <v>68</v>
-      </c>
+      <c r="C56" s="40"/>
     </row>
     <row r="57" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C57" s="8"/>
     </row>
@@ -3703,7 +3556,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C58" s="8"/>
     </row>
@@ -3759,10 +3612,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C65" s="59" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3770,19 +3623,15 @@
         <v>5</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C66" s="40" t="s">
         <v>51</v>
       </c>
+      <c r="C66" s="40"/>
     </row>
     <row r="67" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="55" t="s">
-        <v>49</v>
-      </c>
+      <c r="C67" s="55"/>
     </row>
     <row r="68" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
@@ -3804,7 +3653,7 @@
     </row>
     <row r="71" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="7"/>
@@ -3814,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C72" s="8"/>
     </row>
@@ -3823,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C73" s="39"/>
     </row>
@@ -3841,7 +3690,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C75" s="8"/>
     </row>
@@ -3850,10 +3699,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C76" s="59" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3861,20 +3710,18 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>128</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C78" s="30"/>
     </row>
     <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
@@ -3886,7 +3733,7 @@
         <v>7</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C80" s="8"/>
     </row>
@@ -3896,7 +3743,7 @@
     </row>
     <row r="82" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="7"/>
@@ -3906,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C83" s="8"/>
     </row>
@@ -3915,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84" s="39"/>
     </row>
@@ -3933,7 +3780,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C86" s="8"/>
     </row>
@@ -3942,10 +3789,10 @@
         <v>4</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C87" s="59" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E87" s="63"/>
     </row>
@@ -3954,29 +3801,25 @@
         <v>5</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>77</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C89" s="30"/>
     </row>
     <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>90</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C90" s="30"/>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
@@ -3990,7 +3833,7 @@
         <v>7</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C92" s="8"/>
     </row>
@@ -4037,7 +3880,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C98" s="8"/>
     </row>
@@ -4046,10 +3889,10 @@
         <v>4</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C99" s="59" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4057,21 +3900,21 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C100" s="30"/>
     </row>
     <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C101" s="30"/>
     </row>
     <row r="102" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C102" s="30"/>
     </row>
@@ -4135,30 +3978,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C66" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="C15" r:id="rId3"/>
-    <hyperlink ref="C17" r:id="rId4"/>
-    <hyperlink ref="C40" r:id="rId5"/>
-    <hyperlink ref="C41" r:id="rId6"/>
-    <hyperlink ref="C51" r:id="rId7"/>
-    <hyperlink ref="C54" r:id="rId8"/>
-    <hyperlink ref="C55" r:id="rId9"/>
-    <hyperlink ref="C56" r:id="rId10"/>
-    <hyperlink ref="C77" r:id="rId11"/>
-    <hyperlink ref="C88" r:id="rId12"/>
-    <hyperlink ref="E5" r:id="rId13"/>
-    <hyperlink ref="C89" r:id="rId14"/>
-    <hyperlink ref="E4" r:id="rId15"/>
-    <hyperlink ref="E3" r:id="rId16"/>
-    <hyperlink ref="C52" r:id="rId17"/>
-    <hyperlink ref="C53" r:id="rId18"/>
-    <hyperlink ref="C90" r:id="rId19"/>
-    <hyperlink ref="C78" r:id="rId20"/>
-    <hyperlink ref="C27" r:id="rId21"/>
+    <hyperlink ref="C40" r:id="rId1"/>
+    <hyperlink ref="C41" r:id="rId2"/>
+    <hyperlink ref="C54" r:id="rId3"/>
+    <hyperlink ref="C55" r:id="rId4"/>
+    <hyperlink ref="E5" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="E3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -4166,9 +3995,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4200,16 +4029,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -4217,16 +4046,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4237,11 +4066,11 @@
         <v>42264</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -4299,10 +4128,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4310,50 +4139,40 @@
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C13" s="40"/>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>82</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C15" s="40"/>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C17" s="40"/>
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4378,7 +4197,7 @@
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="7"/>
@@ -4388,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C23" s="8"/>
     </row>
@@ -4397,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C24" s="39"/>
     </row>
@@ -4415,7 +4234,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C26" s="8"/>
     </row>
@@ -4424,10 +4243,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4435,11 +4254,9 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>76</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C28" s="30"/>
     </row>
     <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
@@ -4510,10 +4327,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4521,33 +4338,27 @@
         <v>5</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="40"/>
     </row>
     <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>85</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C40" s="40"/>
     </row>
     <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="40" t="s">
         <v>66</v>
       </c>
+      <c r="C41" s="40"/>
     </row>
     <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="40" t="s">
         <v>67</v>
       </c>
+      <c r="C42" s="40"/>
     </row>
     <row r="43" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
@@ -4615,10 +4426,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="60" t="s">
         <v>92</v>
-      </c>
-      <c r="C51" s="60" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4626,50 +4437,40 @@
         <v>5</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C52" s="40"/>
     </row>
     <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>86</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C53" s="40"/>
     </row>
     <row r="54" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="40" t="s">
-        <v>87</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C54" s="40"/>
     </row>
     <row r="55" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="40" t="s">
         <v>66</v>
       </c>
+      <c r="C55" s="40"/>
     </row>
     <row r="56" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="40" t="s">
         <v>67</v>
       </c>
+      <c r="C56" s="40"/>
     </row>
     <row r="57" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4738,10 +4539,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4749,11 +4550,9 @@
         <v>5</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" s="40" t="s">
         <v>51</v>
       </c>
+      <c r="C67" s="40"/>
     </row>
     <row r="68" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="56" t="s">
@@ -4763,12 +4562,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+    <row r="69" spans="1:3" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>115</v>
+      <c r="B69" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="C69" s="8"/>
     </row>
@@ -4777,7 +4576,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C70" s="8"/>
     </row>
@@ -4787,7 +4586,7 @@
     </row>
     <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="7"/>
@@ -4797,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C73" s="8"/>
     </row>
@@ -4806,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C74" s="39"/>
     </row>
@@ -4824,7 +4623,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C76" s="8"/>
     </row>
@@ -4833,10 +4632,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C77" s="59" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4844,20 +4643,16 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>126</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C78" s="30"/>
     </row>
     <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>76</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C79" s="30"/>
     </row>
     <row r="80" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
@@ -4879,7 +4674,7 @@
     </row>
     <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="7"/>
@@ -4889,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C84" s="8"/>
     </row>
@@ -4898,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C85" s="39"/>
     </row>
@@ -4916,7 +4711,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C87" s="8"/>
     </row>
@@ -4925,10 +4720,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C88" s="59" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E88" s="63"/>
     </row>
@@ -4937,29 +4732,23 @@
         <v>5</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>125</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C89" s="30"/>
     </row>
     <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>77</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C90" s="30"/>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>90</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C91" s="30"/>
     </row>
     <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
@@ -5018,7 +4807,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C99" s="8"/>
     </row>
@@ -5027,10 +4816,10 @@
         <v>4</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C100" s="59" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5038,21 +4827,21 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C101" s="30"/>
     </row>
     <row r="102" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C102" s="30"/>
     </row>
     <row r="103" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C103" s="30"/>
     </row>
@@ -5116,28 +4905,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C67" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="C15" r:id="rId3"/>
-    <hyperlink ref="C16" r:id="rId4"/>
-    <hyperlink ref="C17" r:id="rId5"/>
-    <hyperlink ref="C18" r:id="rId6"/>
-    <hyperlink ref="C41" r:id="rId7"/>
-    <hyperlink ref="C42" r:id="rId8"/>
-    <hyperlink ref="C52" r:id="rId9"/>
-    <hyperlink ref="C55" r:id="rId10"/>
-    <hyperlink ref="C56" r:id="rId11"/>
-    <hyperlink ref="C57" r:id="rId12"/>
-    <hyperlink ref="E5" r:id="rId13"/>
-    <hyperlink ref="C90" r:id="rId14"/>
-    <hyperlink ref="E4" r:id="rId15"/>
-    <hyperlink ref="E3" r:id="rId16"/>
-    <hyperlink ref="C53" r:id="rId17"/>
-    <hyperlink ref="C54" r:id="rId18"/>
-    <hyperlink ref="C91" r:id="rId19"/>
-    <hyperlink ref="C68" r:id="rId20"/>
+    <hyperlink ref="C18" r:id="rId1"/>
+    <hyperlink ref="C57" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId5"/>
+    <hyperlink ref="C68" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
+++ b/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="128">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -504,6 +504,18 @@
   <si>
     <t>4.4.46: Extra preceeding empty line for all paragraphs 
 4.4.47: Borders are OK, but extra preceeding empty line for all paragraphs.</t>
+  </si>
+  <si>
+    <t>NO (grade1)</t>
+  </si>
+  <si>
+    <t>NO (grade2)</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NO/Test.PEF.4.3.37.Contractedbrailletest.grade1.pef</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NO/Test.PEF.4.3.37.Contractedbrailletest.grade2.pef</t>
   </si>
 </sst>
 </file>
@@ -3409,18 +3421,18 @@
     </row>
     <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3978,13 +3990,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C40" r:id="rId1"/>
-    <hyperlink ref="C41" r:id="rId2"/>
-    <hyperlink ref="C54" r:id="rId3"/>
-    <hyperlink ref="C55" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E4" r:id="rId6"/>
-    <hyperlink ref="E3" r:id="rId7"/>
+    <hyperlink ref="C54" r:id="rId1"/>
+    <hyperlink ref="C55" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId5"/>
+    <hyperlink ref="C41" r:id="rId6"/>
+    <hyperlink ref="C40" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -4348,18 +4360,8 @@
       </c>
       <c r="C40" s="40"/>
     </row>
-    <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="40"/>
-    </row>
-    <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="40"/>
-    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>6</v>

--- a/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
+++ b/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name=" Background and Preparation" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint_3 Test results_DK" sheetId="6" r:id="rId2"/>
-    <sheet name="Sprint_3 Test results_NL" sheetId="5" r:id="rId3"/>
-    <sheet name="Sprint_3 Test results_NO" sheetId="8" r:id="rId4"/>
-    <sheet name="Sprint_3 Test results_SE" sheetId="7" r:id="rId5"/>
+    <sheet name="Sprint_3 Test results_DE" sheetId="9" r:id="rId2"/>
+    <sheet name="Sprint_3 Test results_DK" sheetId="6" r:id="rId3"/>
+    <sheet name="Sprint_3 Test results_NL" sheetId="5" r:id="rId4"/>
+    <sheet name="Sprint_3 Test results_NO" sheetId="8" r:id="rId5"/>
+    <sheet name="Sprint_3 Test results_SE" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc403991786" localSheetId="0">' Background and Preparation'!$A$3</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="134">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -516,6 +517,24 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NO/Test.PEF.4.3.37.Contractedbrailletest.grade2.pef</t>
+  </si>
+  <si>
+    <t>Mischa Künzle</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>https://github.com/snaekobbi/testing/tree/master/Test%20data/Sprint_1/DE/4.3.34%2C%204.3.37%2C%204.3.41</t>
+  </si>
+  <si>
+    <t>not yet ready</t>
+  </si>
+  <si>
+    <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_2/DE/4.4.46%2C%204.4.47%2C%204.4.51%2C%204.4.52%2C%204.4.53/test_dtb.pef</t>
+  </si>
+  <si>
+    <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_2/DE/4.4.55/test_preserve_whitespace.pef</t>
   </si>
 </sst>
 </file>
@@ -649,7 +668,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -794,6 +813,7 @@
     <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
@@ -1206,6 +1226,943 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="68">
+        <v>42265</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+    </row>
+    <row r="7" spans="1:5" s="41" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+    </row>
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="40"/>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="40"/>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="40"/>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="40"/>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="40"/>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="39"/>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="30"/>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+    </row>
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="40"/>
+    </row>
+    <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="40"/>
+    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="40"/>
+    </row>
+    <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="40"/>
+    </row>
+    <row r="43" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+    </row>
+    <row r="46" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="1:3" s="6" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="40"/>
+    </row>
+    <row r="54" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="40"/>
+    </row>
+    <row r="55" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="40"/>
+    </row>
+    <row r="56" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="40"/>
+    </row>
+    <row r="57" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="40"/>
+    </row>
+    <row r="58" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+    </row>
+    <row r="61" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="1:3" s="6" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="39"/>
+    </row>
+    <row r="64" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="1:3" s="6" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="55"/>
+    </row>
+    <row r="69" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="8"/>
+    </row>
+    <row r="70" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="8"/>
+    </row>
+    <row r="71" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+    </row>
+    <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="8"/>
+    </row>
+    <row r="74" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="39"/>
+    </row>
+    <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="8"/>
+    </row>
+    <row r="76" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="8"/>
+    </row>
+    <row r="77" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="30"/>
+    </row>
+    <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+      <c r="B79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="30"/>
+    </row>
+    <row r="80" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="8"/>
+    </row>
+    <row r="82" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+    </row>
+    <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="7"/>
+    </row>
+    <row r="84" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="8"/>
+    </row>
+    <row r="85" spans="1:5" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="39"/>
+    </row>
+    <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="8"/>
+    </row>
+    <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" s="6" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" s="63"/>
+    </row>
+    <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="30"/>
+    </row>
+    <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="5"/>
+      <c r="B90" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="5"/>
+      <c r="B91" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="30"/>
+    </row>
+    <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="8"/>
+    </row>
+    <row r="93" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" s="8"/>
+    </row>
+    <row r="94" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+    </row>
+    <row r="95" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="7"/>
+    </row>
+    <row r="96" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="8"/>
+    </row>
+    <row r="97" spans="1:3" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" s="39"/>
+    </row>
+    <row r="98" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="8"/>
+    </row>
+    <row r="99" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" s="8"/>
+    </row>
+    <row r="100" spans="1:3" s="6" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" s="59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="30"/>
+    </row>
+    <row r="102" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5"/>
+      <c r="B102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="30"/>
+    </row>
+    <row r="103" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="5"/>
+      <c r="B103" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103" s="30"/>
+    </row>
+    <row r="104" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="8"/>
+    </row>
+    <row r="105" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" s="8"/>
+    </row>
+    <row r="106" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="46"/>
+      <c r="C106" s="46"/>
+    </row>
+    <row r="107" spans="1:3" s="47" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B107" s="48"/>
+      <c r="C107" s="49"/>
+    </row>
+    <row r="108" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="50"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="52"/>
+    </row>
+    <row r="109" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="50"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="54"/>
+    </row>
+    <row r="110" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="10"/>
+      <c r="C110" s="8"/>
+    </row>
+    <row r="111" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="10"/>
+      <c r="C111" s="8"/>
+    </row>
+    <row r="112" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="5"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="31"/>
+    </row>
+    <row r="113" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="5"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="30"/>
+    </row>
+    <row r="114" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="10"/>
+      <c r="C114" s="8"/>
+    </row>
+    <row r="115" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="10"/>
+      <c r="C115" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C67" r:id="rId1"/>
+    <hyperlink ref="C13" r:id="rId2"/>
+    <hyperlink ref="C52" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="C90" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="E3" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E115"/>
+  <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -2132,7 +3089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
@@ -3066,7 +4023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E114"/>
   <sheetViews>
@@ -4003,11 +4960,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>

--- a/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
+++ b/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name=" Background and Preparation" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint_3 Test results_DE" sheetId="9" r:id="rId2"/>
-    <sheet name="Sprint_3 Test results_DK" sheetId="6" r:id="rId3"/>
-    <sheet name="Sprint_3 Test results_NL" sheetId="5" r:id="rId4"/>
-    <sheet name="Sprint_3 Test results_NO" sheetId="8" r:id="rId5"/>
-    <sheet name="Sprint_3 Test results_SE" sheetId="7" r:id="rId6"/>
+    <sheet name="Sprint_3 Test results_DE" sheetId="12" r:id="rId2"/>
+    <sheet name="Sprint_3 Test results_DK" sheetId="10" r:id="rId3"/>
+    <sheet name="Sprint_3 Test results_FI" sheetId="11" r:id="rId4"/>
+    <sheet name="Sprint_3 Test results_NL" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint_3 Test results_NO" sheetId="8" r:id="rId6"/>
+    <sheet name="Sprint_3 Test results_SE XSLT" sheetId="13" r:id="rId7"/>
+    <sheet name="Sprint_3 Test results_SE CSS" sheetId="15" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc403991786" localSheetId="0">' Background and Preparation'!$A$3</definedName>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="152">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -503,10 +505,6 @@
     <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NO/Test.PEF.4.4.55.whitespace.pef</t>
   </si>
   <si>
-    <t>4.4.46: Extra preceeding empty line for all paragraphs 
-4.4.47: Borders are OK, but extra preceeding empty line for all paragraphs.</t>
-  </si>
-  <si>
     <t>NO (grade1)</t>
   </si>
   <si>
@@ -535,13 +533,167 @@
   </si>
   <si>
     <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_2/DE/4.4.55/test_preserve_whitespace.pef</t>
+  </si>
+  <si>
+    <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_1/FI/4.3.34/fi-uncontracted.pef</t>
+  </si>
+  <si>
+    <t>To be merged</t>
+  </si>
+  <si>
+    <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_2/NO/4.4.54%2C%204.4.55/Test.PEF.4.4.54-55.Whitespace.pef</t>
+  </si>
+  <si>
+    <t>DK (uniform)</t>
+  </si>
+  <si>
+    <t>https://github.com/stesk/danishbraille/blob/master/tests/formatting/linespace_uniform_sample.pef</t>
+  </si>
+  <si>
+    <t>DK (alternating)</t>
+  </si>
+  <si>
+    <t>https://github.com/stesk/danishbraille/blob/master/tests/formatting/linespace_alternating_sample.pef</t>
+  </si>
+  <si>
+    <t>Because these are two separate requirements, I do not consider it an error that alternating line-spacing (4.4:75) is not enabled by default once double (or whatever multiple) line-spacing (4.4:74) is enabled. See test cases linespace_uniform_sample and linespace_alternating_sample. Both work; hence the collective pass.</t>
+  </si>
+  <si>
+    <t>Päivi Suhonen</t>
+  </si>
+  <si>
+    <t>Celia Finland</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The characters in the Finnish Braille table are correct but we need a way to handle all other characters that might exist in the source file. We might need different handling to these characters in different books. Like à might be  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="TRC-Braille (med .)"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  or  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="TRC-Braille (med .)"/>
+        <family val="2"/>
+      </rPr>
+      <t>~a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  or  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="TRC-Braille (med .)"/>
+        <family val="2"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  depending on the context.  In this book I wouldn't want to have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="TRC-Braille (med .)"/>
+        <family val="2"/>
+      </rPr>
+      <t>~o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Nesb&amp;#xf8; but </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="TRC-Braille (med .)"/>
+        <family val="2"/>
+      </rPr>
+      <t>ö</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. And we want never the hexadecimal codes to be in the Braille, like &amp;#xbb;. is in this case. </t>
+    </r>
+  </si>
+  <si>
+    <t>Hyphenation is even better than we have now</t>
+  </si>
+  <si>
+    <t>not tested</t>
+  </si>
+  <si>
+    <t>NOTE THAT THIS test has generated double line spacing. 4.4.46: Prodnote markup: questionable how this looks with single line spacing, here no extra space before and after the block as it should be. 4.4.47: Borders look O.K., EXCEPT for an extra line (dots1 and 3) after H1/part-heading.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.46: fail. 4.4.47: FAIL. 4.4.52: PASS. 4.4.53: PASS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The test is passed when comes to double line spacing. No options availbale yet for single line spacing. It is probable though that the script should have generated single line spacing. </t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No word has been hyphenated, lines are broken between the words. </t>
+  </si>
+  <si>
+    <t>4.4.46: Extra preceeding empty line for all paragraphs, JUST AS BEFORE! 4.4.47: Borders are OK, but extra preceeding empty line for all paragraphs. HERE TOO, THE SAME RESULT AS BEFORE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,6 +761,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="TRC-Braille (med .)"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -668,7 +826,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -814,6 +972,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
@@ -1111,104 +1271,104 @@
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" ht="24" thickBot="1">
       <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15" thickTop="1">
       <c r="A2" s="35"/>
     </row>
-    <row r="3" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="18" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="43.8" thickTop="1">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="18" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="15" thickTop="1">
       <c r="A7" s="32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" s="25"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" s="30"/>
     </row>
-    <row r="14" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" ht="18" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="15" thickTop="1">
       <c r="A15" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="24"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" ht="18" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="144.6" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="144.6" thickTop="1">
       <c r="A22" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="28"/>
     </row>
   </sheetData>
@@ -1226,12 +1386,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="40.5546875" style="12" customWidth="1"/>
@@ -1240,7 +1400,7 @@
     <col min="5" max="5" width="33" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="23.4">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -1249,18 +1409,18 @@
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
     </row>
-    <row r="2" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="22" customFormat="1">
       <c r="B2" s="20"/>
       <c r="C2" s="19"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="22" customFormat="1">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>31</v>
@@ -1272,12 +1432,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="22" customFormat="1">
       <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>30</v>
@@ -1289,12 +1449,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="23" customFormat="1">
       <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="68">
-        <v>42265</v>
+        <v>42277</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>70</v>
@@ -1304,30 +1464,30 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="35" customFormat="1">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" spans="1:5" s="41" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" s="41" customFormat="1" ht="18" thickBot="1">
       <c r="A7" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="43"/>
     </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>12</v>
+      <c r="B8" s="69">
+        <v>12482</v>
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="6" customFormat="1">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -1336,7 +1496,7 @@
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="6" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
@@ -1345,7 +1505,7 @@
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="6" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -1354,7 +1514,7 @@
       </c>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="244.8">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1365,7 +1525,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="6" customFormat="1">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -1373,40 +1533,50 @@
         <v>51</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1">
       <c r="B14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="40"/>
-    </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="40"/>
-    </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1">
       <c r="B16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="40"/>
-    </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="B17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="40"/>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="40"/>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1415,27 +1585,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="6" customFormat="1">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="27" customFormat="1">
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1614,7 @@
       </c>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="28.8">
       <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
@@ -1453,7 +1623,7 @@
       </c>
       <c r="C24" s="39"/>
     </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="6" customFormat="1">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
@@ -1462,7 +1632,7 @@
       </c>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="6" customFormat="1">
       <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
@@ -1471,7 +1641,7 @@
       </c>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="201.6">
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
@@ -1482,44 +1652,48 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="6" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="30"/>
-    </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1">
       <c r="A29" s="5"/>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="6" customFormat="1">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="6" customFormat="1">
       <c r="A31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="27" customFormat="1">
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
     </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A34" s="6" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1702,7 @@
       </c>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="6" customFormat="1">
       <c r="A35" s="6" t="s">
         <v>1</v>
       </c>
@@ -1537,7 +1711,7 @@
       </c>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="6" customFormat="1">
       <c r="A36" s="6" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1720,7 @@
       </c>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="6" customFormat="1">
       <c r="A37" s="6" t="s">
         <v>3</v>
       </c>
@@ -1555,7 +1729,7 @@
       </c>
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:3" s="6" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="216">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1566,7 +1740,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="6" customFormat="1">
       <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
@@ -1575,52 +1749,58 @@
       </c>
       <c r="C39" s="40"/>
     </row>
-    <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="6" customFormat="1">
       <c r="B40" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="40"/>
-    </row>
-    <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1">
       <c r="B41" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="40"/>
-    </row>
-    <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="6" customFormat="1">
       <c r="B42" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="40"/>
-    </row>
-    <row r="43" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="6" customFormat="1">
       <c r="A43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="6" customFormat="1">
       <c r="A44" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="27" customFormat="1">
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
     </row>
-    <row r="46" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A47" s="6" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1809,7 @@
       </c>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" s="6" customFormat="1">
       <c r="A48" s="6" t="s">
         <v>1</v>
       </c>
@@ -1638,7 +1818,7 @@
       </c>
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="6" customFormat="1">
       <c r="A49" s="6" t="s">
         <v>2</v>
       </c>
@@ -1647,7 +1827,7 @@
       </c>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" s="6" customFormat="1">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -1656,7 +1836,7 @@
       </c>
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="1:3" s="6" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" s="6" customFormat="1" ht="316.8">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -1667,7 +1847,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="6" customFormat="1">
       <c r="A52" s="6" t="s">
         <v>5</v>
       </c>
@@ -1675,47 +1855,57 @@
         <v>51</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="6" customFormat="1">
       <c r="B53" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="40"/>
-    </row>
-    <row r="54" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="6" customFormat="1">
       <c r="B54" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="40"/>
-    </row>
-    <row r="55" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="6" customFormat="1">
       <c r="B55" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="40"/>
-    </row>
-    <row r="56" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="6" customFormat="1">
       <c r="B56" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="40"/>
-    </row>
-    <row r="57" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="6" customFormat="1">
       <c r="B57" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="40"/>
-    </row>
-    <row r="58" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="6" customFormat="1">
       <c r="A58" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" s="6" customFormat="1">
       <c r="A59" s="6" t="s">
         <v>7</v>
       </c>
@@ -1724,18 +1914,18 @@
       </c>
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" s="27" customFormat="1">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
     </row>
-    <row r="61" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A61" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3" s="6" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" s="6" customFormat="1" ht="43.8" thickTop="1">
       <c r="A62" s="5" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +1934,7 @@
       </c>
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" s="6" customFormat="1" ht="187.2">
       <c r="A63" s="5" t="s">
         <v>1</v>
       </c>
@@ -1753,7 +1943,7 @@
       </c>
       <c r="C63" s="39"/>
     </row>
-    <row r="64" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="6" customFormat="1">
       <c r="A64" s="6" t="s">
         <v>2</v>
       </c>
@@ -1762,7 +1952,7 @@
       </c>
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" s="6" customFormat="1">
       <c r="A65" s="6" t="s">
         <v>3</v>
       </c>
@@ -1771,7 +1961,7 @@
       </c>
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="1:3" s="6" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" s="6" customFormat="1" ht="172.8">
       <c r="A66" s="5" t="s">
         <v>4</v>
       </c>
@@ -1782,7 +1972,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" s="6" customFormat="1">
       <c r="A67" s="6" t="s">
         <v>5</v>
       </c>
@@ -1790,23 +1980,25 @@
         <v>51</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="6" customFormat="1">
       <c r="B68" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="55"/>
-    </row>
-    <row r="69" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="6" customFormat="1">
       <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" s="6" customFormat="1">
       <c r="A70" s="6" t="s">
         <v>7</v>
       </c>
@@ -1815,18 +2007,18 @@
       </c>
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" s="27" customFormat="1">
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
     </row>
-    <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A72" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A73" s="5" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +2027,7 @@
       </c>
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" s="6" customFormat="1" ht="187.2">
       <c r="A74" s="5" t="s">
         <v>1</v>
       </c>
@@ -1844,7 +2036,7 @@
       </c>
       <c r="C74" s="39"/>
     </row>
-    <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" s="6" customFormat="1">
       <c r="A75" s="6" t="s">
         <v>2</v>
       </c>
@@ -1853,7 +2045,7 @@
       </c>
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" s="6" customFormat="1">
       <c r="A76" s="6" t="s">
         <v>3</v>
       </c>
@@ -1862,7 +2054,7 @@
       </c>
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" s="6" customFormat="1" ht="201.6">
       <c r="A77" s="5" t="s">
         <v>4</v>
       </c>
@@ -1873,48 +2065,54 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" s="6" customFormat="1">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B78" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="30"/>
-    </row>
-    <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="6" customFormat="1">
       <c r="A79" s="5"/>
       <c r="B79" t="s">
         <v>68</v>
       </c>
-      <c r="C79" s="30"/>
-    </row>
-    <row r="80" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="6" customFormat="1">
       <c r="A80" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" s="6" customFormat="1">
       <c r="A81" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="10"/>
+      <c r="B81" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" s="27" customFormat="1">
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
     </row>
-    <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A83" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1">
       <c r="A84" s="5" t="s">
         <v>0</v>
       </c>
@@ -1923,7 +2121,7 @@
       </c>
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="1:5" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" s="6" customFormat="1" ht="115.2">
       <c r="A85" s="5" t="s">
         <v>1</v>
       </c>
@@ -1932,7 +2130,7 @@
       </c>
       <c r="C85" s="39"/>
     </row>
-    <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" s="6" customFormat="1">
       <c r="A86" s="6" t="s">
         <v>2</v>
       </c>
@@ -1941,7 +2139,7 @@
       </c>
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" s="6" customFormat="1">
       <c r="A87" s="6" t="s">
         <v>3</v>
       </c>
@@ -1950,7 +2148,7 @@
       </c>
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="1:5" s="6" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" s="6" customFormat="1" ht="244.8">
       <c r="A88" s="5" t="s">
         <v>4</v>
       </c>
@@ -1962,59 +2160,63 @@
       </c>
       <c r="E88" s="63"/>
     </row>
-    <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" s="6" customFormat="1">
       <c r="A89" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C89" s="30"/>
-    </row>
-    <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="6" customFormat="1">
       <c r="A90" s="5"/>
       <c r="B90" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="6" customFormat="1">
       <c r="A91" s="5"/>
       <c r="B91" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C91" s="30"/>
-    </row>
-    <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="6" customFormat="1">
       <c r="A92" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" s="6" customFormat="1">
       <c r="A93" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" s="27" customFormat="1">
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
     </row>
-    <row r="95" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A95" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A96" s="5" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2225,7 @@
       </c>
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="1:3" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" s="6" customFormat="1" ht="72">
       <c r="A97" s="5" t="s">
         <v>1</v>
       </c>
@@ -2032,7 +2234,7 @@
       </c>
       <c r="C97" s="39"/>
     </row>
-    <row r="98" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" s="6" customFormat="1">
       <c r="A98" s="6" t="s">
         <v>2</v>
       </c>
@@ -2041,7 +2243,7 @@
       </c>
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" s="6" customFormat="1">
       <c r="A99" s="6" t="s">
         <v>3</v>
       </c>
@@ -2050,7 +2252,7 @@
       </c>
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="1:3" s="6" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" s="6" customFormat="1" ht="302.39999999999998">
       <c r="A100" s="5" t="s">
         <v>4</v>
       </c>
@@ -2061,7 +2263,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" s="6" customFormat="1">
       <c r="A101" s="5" t="s">
         <v>5</v>
       </c>
@@ -2070,77 +2272,77 @@
       </c>
       <c r="C101" s="30"/>
     </row>
-    <row r="102" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" s="6" customFormat="1">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
         <v>60</v>
       </c>
       <c r="C102" s="30"/>
     </row>
-    <row r="103" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" s="6" customFormat="1">
       <c r="A103" s="5"/>
       <c r="B103" t="s">
         <v>61</v>
       </c>
       <c r="C103" s="30"/>
     </row>
-    <row r="104" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" s="6" customFormat="1">
       <c r="A104" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" s="6" customFormat="1">
       <c r="A105" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" s="45" customFormat="1">
       <c r="B106" s="46"/>
       <c r="C106" s="46"/>
     </row>
-    <row r="107" spans="1:3" s="47" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" s="47" customFormat="1" ht="17.399999999999999">
       <c r="B107" s="48"/>
       <c r="C107" s="49"/>
     </row>
-    <row r="108" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" s="53" customFormat="1">
       <c r="A108" s="50"/>
       <c r="B108" s="51"/>
       <c r="C108" s="52"/>
     </row>
-    <row r="109" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" s="53" customFormat="1">
       <c r="A109" s="50"/>
       <c r="B109" s="51"/>
       <c r="C109" s="54"/>
     </row>
-    <row r="110" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" s="6" customFormat="1">
       <c r="B110" s="10"/>
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" s="6" customFormat="1">
       <c r="B111" s="10"/>
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" s="6" customFormat="1">
       <c r="A112" s="5"/>
       <c r="B112" s="13"/>
       <c r="C112" s="31"/>
     </row>
-    <row r="113" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" s="6" customFormat="1">
       <c r="A113" s="5"/>
       <c r="B113" s="25"/>
       <c r="C113" s="30"/>
     </row>
-    <row r="114" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" s="6" customFormat="1">
       <c r="B114" s="10"/>
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" s="6" customFormat="1">
       <c r="B115" s="10"/>
       <c r="C115" s="8"/>
     </row>
@@ -2148,27 +2350,41 @@
   <hyperlinks>
     <hyperlink ref="C67" r:id="rId1"/>
     <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="C52" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="C90" r:id="rId5"/>
-    <hyperlink ref="E4" r:id="rId6"/>
-    <hyperlink ref="E3" r:id="rId7"/>
+    <hyperlink ref="C15" r:id="rId3"/>
+    <hyperlink ref="C16" r:id="rId4"/>
+    <hyperlink ref="C17" r:id="rId5"/>
+    <hyperlink ref="C18" r:id="rId6"/>
+    <hyperlink ref="C41" r:id="rId7"/>
+    <hyperlink ref="C42" r:id="rId8"/>
+    <hyperlink ref="C52" r:id="rId9"/>
+    <hyperlink ref="C55" r:id="rId10"/>
+    <hyperlink ref="C56" r:id="rId11"/>
+    <hyperlink ref="C57" r:id="rId12"/>
+    <hyperlink ref="C78" r:id="rId13"/>
+    <hyperlink ref="C89" r:id="rId14"/>
+    <hyperlink ref="E5" r:id="rId15"/>
+    <hyperlink ref="C90" r:id="rId16"/>
+    <hyperlink ref="E4" r:id="rId17"/>
+    <hyperlink ref="E3" r:id="rId18"/>
+    <hyperlink ref="C53" r:id="rId19"/>
+    <hyperlink ref="C54" r:id="rId20"/>
+    <hyperlink ref="C91" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="6" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="40.5546875" style="12" customWidth="1"/>
@@ -2177,7 +2393,7 @@
     <col min="5" max="5" width="33" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="23.4">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -2186,13 +2402,13 @@
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
     </row>
-    <row r="2" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="22" customFormat="1">
       <c r="B2" s="20"/>
       <c r="C2" s="19"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="22" customFormat="1">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -2209,7 +2425,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="22" customFormat="1">
       <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
@@ -2226,11 +2442,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="23" customFormat="1">
       <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="68">
         <v>42263</v>
       </c>
       <c r="C5" s="58" t="s">
@@ -2241,21 +2457,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="35" customFormat="1">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" spans="1:5" s="41" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" s="41" customFormat="1" ht="18" thickBot="1">
       <c r="A7" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="43"/>
     </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -2264,7 +2480,7 @@
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="6" customFormat="1">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -2273,7 +2489,7 @@
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="6" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
@@ -2282,7 +2498,7 @@
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="6" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -2291,7 +2507,7 @@
       </c>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="244.8">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -2302,16 +2518,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="6" customFormat="1">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="40"/>
-    </row>
-    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1">
       <c r="B14" s="10" t="s">
         <v>60</v>
       </c>
@@ -2319,31 +2537,39 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="6" customFormat="1">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="40"/>
-    </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1">
       <c r="B16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="40"/>
-    </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="B17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="40"/>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="40"/>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2352,25 +2578,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="6" customFormat="1">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="27" customFormat="1">
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
@@ -2379,7 +2605,7 @@
       </c>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="28.8">
       <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
@@ -2388,7 +2614,7 @@
       </c>
       <c r="C24" s="39"/>
     </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="6" customFormat="1">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
@@ -2397,7 +2623,7 @@
       </c>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="6" customFormat="1">
       <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
@@ -2406,7 +2632,7 @@
       </c>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="201.6">
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
@@ -2417,44 +2643,46 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="6" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="30"/>
-    </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1">
       <c r="A29" s="5"/>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="6" customFormat="1">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="6" customFormat="1">
       <c r="A31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="27" customFormat="1">
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
     </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A34" s="6" t="s">
         <v>0</v>
       </c>
@@ -2463,7 +2691,7 @@
       </c>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="6" customFormat="1">
       <c r="A35" s="6" t="s">
         <v>1</v>
       </c>
@@ -2472,7 +2700,7 @@
       </c>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="6" customFormat="1">
       <c r="A36" s="6" t="s">
         <v>2</v>
       </c>
@@ -2481,7 +2709,7 @@
       </c>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="6" customFormat="1">
       <c r="A37" s="6" t="s">
         <v>3</v>
       </c>
@@ -2490,7 +2718,7 @@
       </c>
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:3" s="6" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="216">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
@@ -2501,7 +2729,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="6" customFormat="1">
       <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
@@ -2510,7 +2738,7 @@
       </c>
       <c r="C39" s="40"/>
     </row>
-    <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="6" customFormat="1">
       <c r="B40" s="10" t="s">
         <v>60</v>
       </c>
@@ -2518,44 +2746,48 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="6" customFormat="1">
       <c r="B41" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="40"/>
-    </row>
-    <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="6" customFormat="1">
       <c r="B42" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="40"/>
-    </row>
-    <row r="43" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="6" customFormat="1">
       <c r="A43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="6" customFormat="1">
       <c r="A44" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="27" customFormat="1">
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
     </row>
-    <row r="46" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A47" s="6" t="s">
         <v>0</v>
       </c>
@@ -2564,7 +2796,7 @@
       </c>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" s="6" customFormat="1">
       <c r="A48" s="6" t="s">
         <v>1</v>
       </c>
@@ -2573,7 +2805,7 @@
       </c>
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="6" customFormat="1">
       <c r="A49" s="6" t="s">
         <v>2</v>
       </c>
@@ -2582,7 +2814,7 @@
       </c>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" s="6" customFormat="1">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -2591,7 +2823,7 @@
       </c>
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="1:3" s="6" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" s="6" customFormat="1" ht="316.8">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -2602,16 +2834,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="6" customFormat="1">
       <c r="A52" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="40"/>
-    </row>
-    <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="6" customFormat="1">
       <c r="B53" s="10" t="s">
         <v>83</v>
       </c>
@@ -2619,7 +2853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" s="6" customFormat="1">
       <c r="B54" s="10" t="s">
         <v>82</v>
       </c>
@@ -2627,50 +2861,56 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" s="6" customFormat="1">
       <c r="B55" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="40"/>
-    </row>
-    <row r="56" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="6" customFormat="1">
       <c r="B56" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="40"/>
-    </row>
-    <row r="57" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="6" customFormat="1">
       <c r="B57" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="40"/>
-    </row>
-    <row r="58" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="6" customFormat="1">
       <c r="A58" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" s="6" customFormat="1">
       <c r="A59" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" s="27" customFormat="1">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
     </row>
-    <row r="61" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A61" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3" s="6" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" s="6" customFormat="1" ht="43.8" thickTop="1">
       <c r="A62" s="5" t="s">
         <v>0</v>
       </c>
@@ -2679,7 +2919,7 @@
       </c>
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" s="6" customFormat="1" ht="187.2">
       <c r="A63" s="5" t="s">
         <v>1</v>
       </c>
@@ -2688,7 +2928,7 @@
       </c>
       <c r="C63" s="39"/>
     </row>
-    <row r="64" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="6" customFormat="1">
       <c r="A64" s="6" t="s">
         <v>2</v>
       </c>
@@ -2697,7 +2937,7 @@
       </c>
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" s="6" customFormat="1">
       <c r="A65" s="6" t="s">
         <v>3</v>
       </c>
@@ -2706,7 +2946,7 @@
       </c>
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="1:3" s="6" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" s="6" customFormat="1" ht="172.8">
       <c r="A66" s="5" t="s">
         <v>4</v>
       </c>
@@ -2717,47 +2957,51 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" s="6" customFormat="1">
       <c r="A67" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="40"/>
-    </row>
-    <row r="68" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="6" customFormat="1">
       <c r="B68" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="55"/>
-    </row>
-    <row r="69" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="6" customFormat="1">
       <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" s="6" customFormat="1">
       <c r="A70" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" s="27" customFormat="1">
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
     </row>
-    <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A72" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A73" s="5" t="s">
         <v>0</v>
       </c>
@@ -2766,7 +3010,7 @@
       </c>
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" s="6" customFormat="1" ht="187.2">
       <c r="A74" s="5" t="s">
         <v>1</v>
       </c>
@@ -2775,7 +3019,7 @@
       </c>
       <c r="C74" s="39"/>
     </row>
-    <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" s="6" customFormat="1">
       <c r="A75" s="6" t="s">
         <v>2</v>
       </c>
@@ -2784,7 +3028,7 @@
       </c>
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" s="6" customFormat="1">
       <c r="A76" s="6" t="s">
         <v>3</v>
       </c>
@@ -2793,7 +3037,7 @@
       </c>
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" s="6" customFormat="1" ht="201.6">
       <c r="A77" s="5" t="s">
         <v>4</v>
       </c>
@@ -2804,48 +3048,52 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" s="6" customFormat="1">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B78" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="30"/>
-    </row>
-    <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="6" customFormat="1">
       <c r="A79" s="5"/>
       <c r="B79" t="s">
         <v>68</v>
       </c>
-      <c r="C79" s="30"/>
-    </row>
-    <row r="80" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="6" customFormat="1">
       <c r="A80" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" s="6" customFormat="1">
       <c r="A81" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" s="27" customFormat="1">
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
     </row>
-    <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A83" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1">
       <c r="A84" s="5" t="s">
         <v>0</v>
       </c>
@@ -2854,7 +3102,7 @@
       </c>
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="1:5" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" s="6" customFormat="1" ht="115.2">
       <c r="A85" s="5" t="s">
         <v>1</v>
       </c>
@@ -2863,7 +3111,7 @@
       </c>
       <c r="C85" s="39"/>
     </row>
-    <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" s="6" customFormat="1">
       <c r="A86" s="6" t="s">
         <v>2</v>
       </c>
@@ -2872,7 +3120,7 @@
       </c>
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" s="6" customFormat="1">
       <c r="A87" s="6" t="s">
         <v>3</v>
       </c>
@@ -2881,7 +3129,7 @@
       </c>
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="1:5" s="6" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" s="6" customFormat="1" ht="244.8">
       <c r="A88" s="5" t="s">
         <v>4</v>
       </c>
@@ -2893,23 +3141,27 @@
       </c>
       <c r="E88" s="63"/>
     </row>
-    <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" s="6" customFormat="1">
       <c r="A89" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C89" s="30"/>
-    </row>
-    <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="6" customFormat="1">
       <c r="A90" s="5"/>
       <c r="B90" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C90" s="30"/>
-    </row>
-    <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="6" customFormat="1">
       <c r="A91" s="5"/>
       <c r="B91" s="13" t="s">
         <v>60</v>
@@ -2918,7 +3170,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" s="6" customFormat="1">
       <c r="A92" s="6" t="s">
         <v>6</v>
       </c>
@@ -2927,7 +3179,7 @@
       </c>
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" s="6" customFormat="1">
       <c r="A93" s="6" t="s">
         <v>7</v>
       </c>
@@ -2936,18 +3188,18 @@
       </c>
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" s="27" customFormat="1">
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
     </row>
-    <row r="95" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A95" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A96" s="5" t="s">
         <v>0</v>
       </c>
@@ -2956,7 +3208,7 @@
       </c>
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="1:3" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" s="6" customFormat="1" ht="72">
       <c r="A97" s="5" t="s">
         <v>1</v>
       </c>
@@ -2965,7 +3217,7 @@
       </c>
       <c r="C97" s="39"/>
     </row>
-    <row r="98" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" s="6" customFormat="1">
       <c r="A98" s="6" t="s">
         <v>2</v>
       </c>
@@ -2974,7 +3226,7 @@
       </c>
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" s="6" customFormat="1">
       <c r="A99" s="6" t="s">
         <v>3</v>
       </c>
@@ -2983,7 +3235,7 @@
       </c>
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="1:3" s="6" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" s="6" customFormat="1" ht="331.2">
       <c r="A100" s="5" t="s">
         <v>4</v>
       </c>
@@ -2994,7 +3246,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" s="6" customFormat="1">
       <c r="A101" s="5" t="s">
         <v>5</v>
       </c>
@@ -3003,89 +3255,121 @@
       </c>
       <c r="C101" s="30"/>
     </row>
-    <row r="102" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" s="6" customFormat="1">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
-        <v>60</v>
-      </c>
-      <c r="C102" s="30"/>
-    </row>
-    <row r="103" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="6" customFormat="1">
       <c r="A103" s="5"/>
       <c r="B103" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="6" customFormat="1">
+      <c r="A104" s="5"/>
+      <c r="B104" t="s">
         <v>61</v>
       </c>
-      <c r="C103" s="30"/>
-    </row>
-    <row r="104" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
+      <c r="C104" s="30"/>
+    </row>
+    <row r="105" spans="1:3" s="6" customFormat="1">
+      <c r="A105" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="8"/>
-    </row>
-    <row r="105" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
+      <c r="B105" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="8"/>
+    </row>
+    <row r="106" spans="1:3" s="6" customFormat="1">
+      <c r="A106" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="8"/>
-    </row>
-    <row r="106" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="46"/>
-      <c r="C106" s="46"/>
-    </row>
-    <row r="107" spans="1:3" s="47" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B107" s="48"/>
-      <c r="C107" s="49"/>
-    </row>
-    <row r="108" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="50"/>
-      <c r="B108" s="51"/>
-      <c r="C108" s="52"/>
-    </row>
-    <row r="109" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="8"/>
+    </row>
+    <row r="107" spans="1:3" s="45" customFormat="1">
+      <c r="B107" s="46"/>
+      <c r="C107" s="46"/>
+    </row>
+    <row r="108" spans="1:3" s="47" customFormat="1" ht="17.399999999999999">
+      <c r="B108" s="48"/>
+      <c r="C108" s="49"/>
+    </row>
+    <row r="109" spans="1:3" s="53" customFormat="1">
       <c r="A109" s="50"/>
       <c r="B109" s="51"/>
-      <c r="C109" s="54"/>
-    </row>
-    <row r="110" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="10"/>
-      <c r="C110" s="8"/>
-    </row>
-    <row r="111" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="52"/>
+    </row>
+    <row r="110" spans="1:3" s="53" customFormat="1">
+      <c r="A110" s="50"/>
+      <c r="B110" s="51"/>
+      <c r="C110" s="54"/>
+    </row>
+    <row r="111" spans="1:3" s="6" customFormat="1">
       <c r="B111" s="10"/>
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="5"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="31"/>
-    </row>
-    <row r="113" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" s="6" customFormat="1">
+      <c r="B112" s="10"/>
+      <c r="C112" s="8"/>
+    </row>
+    <row r="113" spans="1:3" s="6" customFormat="1">
       <c r="A113" s="5"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="30"/>
-    </row>
-    <row r="114" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="10"/>
-      <c r="C114" s="8"/>
-    </row>
-    <row r="115" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="13"/>
+      <c r="C113" s="31"/>
+    </row>
+    <row r="114" spans="1:3" s="6" customFormat="1">
+      <c r="A114" s="5"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="30"/>
+    </row>
+    <row r="115" spans="1:3" s="6" customFormat="1">
       <c r="B115" s="10"/>
       <c r="C115" s="8"/>
     </row>
+    <row r="116" spans="1:3" s="6" customFormat="1">
+      <c r="B116" s="10"/>
+      <c r="C116" s="8"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="C53" r:id="rId4"/>
-    <hyperlink ref="C54" r:id="rId5"/>
-    <hyperlink ref="C91" r:id="rId6"/>
+    <hyperlink ref="C67" r:id="rId1"/>
+    <hyperlink ref="C13" r:id="rId2"/>
+    <hyperlink ref="C15" r:id="rId3"/>
+    <hyperlink ref="C16" r:id="rId4"/>
+    <hyperlink ref="C17" r:id="rId5"/>
+    <hyperlink ref="C18" r:id="rId6"/>
+    <hyperlink ref="C41" r:id="rId7"/>
+    <hyperlink ref="C42" r:id="rId8"/>
+    <hyperlink ref="C52" r:id="rId9"/>
+    <hyperlink ref="C55" r:id="rId10"/>
+    <hyperlink ref="C56" r:id="rId11"/>
+    <hyperlink ref="C57" r:id="rId12"/>
+    <hyperlink ref="C78" r:id="rId13"/>
+    <hyperlink ref="C89" r:id="rId14"/>
+    <hyperlink ref="E5" r:id="rId15"/>
+    <hyperlink ref="C90" r:id="rId16"/>
+    <hyperlink ref="E4" r:id="rId17"/>
+    <hyperlink ref="E3" r:id="rId18"/>
+    <hyperlink ref="C53" r:id="rId19"/>
+    <hyperlink ref="C54" r:id="rId20"/>
+    <hyperlink ref="C91" r:id="rId21"/>
+    <hyperlink ref="C102" r:id="rId22"/>
+    <hyperlink ref="C103" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -3094,11 +3378,996 @@
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="6" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="23.4">
+      <c r="A1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" s="22" customFormat="1">
+      <c r="B2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" s="22" customFormat="1">
+      <c r="A3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="22" customFormat="1">
+      <c r="A4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="23" customFormat="1">
+      <c r="A5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="68">
+        <v>42272</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="35" customFormat="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+    </row>
+    <row r="7" spans="1:5" s="41" customFormat="1" ht="18" thickBot="1">
+      <c r="A7" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+    </row>
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1">
+      <c r="A8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1">
+      <c r="A9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" s="6" customFormat="1">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="244.8">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1">
+      <c r="B14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1">
+      <c r="B15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1">
+      <c r="B16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1">
+      <c r="B17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1">
+      <c r="B18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="144">
+      <c r="A19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1">
+      <c r="A20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" s="27" customFormat="1">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
+      <c r="A23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="28.8">
+      <c r="A24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="39"/>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1">
+      <c r="A25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1">
+      <c r="A26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="201.6">
+      <c r="A27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1">
+      <c r="A28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1">
+      <c r="A30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" s="6" customFormat="1">
+      <c r="A31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" s="27" customFormat="1">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+    </row>
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
+      <c r="A34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" s="6" customFormat="1">
+      <c r="A35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1">
+      <c r="A36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1">
+      <c r="A37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="216">
+      <c r="A38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="6" customFormat="1">
+      <c r="A39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="40"/>
+    </row>
+    <row r="40" spans="1:3" s="6" customFormat="1">
+      <c r="B40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1">
+      <c r="B41" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="6" customFormat="1">
+      <c r="B42" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="6" customFormat="1">
+      <c r="A43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" s="6" customFormat="1">
+      <c r="A44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:3" s="27" customFormat="1">
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+    </row>
+    <row r="46" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
+      <c r="A47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" s="6" customFormat="1">
+      <c r="A48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" s="6" customFormat="1">
+      <c r="A49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" s="6" customFormat="1">
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="1:3" s="6" customFormat="1" ht="316.8">
+      <c r="A51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="6" customFormat="1">
+      <c r="A52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="6" customFormat="1">
+      <c r="B53" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="6" customFormat="1">
+      <c r="B54" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="6" customFormat="1">
+      <c r="B55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="6" customFormat="1">
+      <c r="B56" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="6" customFormat="1">
+      <c r="B57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="6" customFormat="1">
+      <c r="A58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="1:3" s="6" customFormat="1">
+      <c r="A59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="1:3" s="27" customFormat="1">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+    </row>
+    <row r="61" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="1:3" s="6" customFormat="1" ht="43.8" thickTop="1">
+      <c r="A62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="1:3" s="6" customFormat="1" ht="187.2">
+      <c r="A63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="39"/>
+    </row>
+    <row r="64" spans="1:3" s="6" customFormat="1">
+      <c r="A64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" spans="1:3" s="6" customFormat="1">
+      <c r="A65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="1:3" s="6" customFormat="1" ht="172.8">
+      <c r="A66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="6" customFormat="1">
+      <c r="A67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="6" customFormat="1">
+      <c r="B68" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="6" customFormat="1">
+      <c r="A69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="8"/>
+    </row>
+    <row r="70" spans="1:3" s="6" customFormat="1">
+      <c r="A70" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="8"/>
+    </row>
+    <row r="71" spans="1:3" s="27" customFormat="1">
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+    </row>
+    <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A72" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
+      <c r="A73" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="8"/>
+    </row>
+    <row r="74" spans="1:3" s="6" customFormat="1" ht="187.2">
+      <c r="A74" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="39"/>
+    </row>
+    <row r="75" spans="1:3" s="6" customFormat="1">
+      <c r="A75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="8"/>
+    </row>
+    <row r="76" spans="1:3" s="6" customFormat="1">
+      <c r="A76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="8"/>
+    </row>
+    <row r="77" spans="1:3" s="6" customFormat="1" ht="201.6">
+      <c r="A77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="6" customFormat="1">
+      <c r="A78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="6" customFormat="1">
+      <c r="A79" s="5"/>
+      <c r="B79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="6" customFormat="1">
+      <c r="A80" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" s="6" customFormat="1">
+      <c r="A81" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="8"/>
+    </row>
+    <row r="82" spans="1:5" s="27" customFormat="1">
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+    </row>
+    <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A83" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="7"/>
+    </row>
+    <row r="84" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1">
+      <c r="A84" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="8"/>
+    </row>
+    <row r="85" spans="1:5" s="6" customFormat="1" ht="115.2">
+      <c r="A85" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="39"/>
+    </row>
+    <row r="86" spans="1:5" s="6" customFormat="1">
+      <c r="A86" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="8"/>
+    </row>
+    <row r="87" spans="1:5" s="6" customFormat="1">
+      <c r="A87" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" s="6" customFormat="1" ht="244.8">
+      <c r="A88" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" s="63"/>
+    </row>
+    <row r="89" spans="1:5" s="6" customFormat="1">
+      <c r="A89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="6" customFormat="1">
+      <c r="A90" s="5"/>
+      <c r="B90" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="6" customFormat="1">
+      <c r="A91" s="5"/>
+      <c r="B91" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="6" customFormat="1">
+      <c r="A92" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="8"/>
+    </row>
+    <row r="93" spans="1:5" s="6" customFormat="1">
+      <c r="A93" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="8"/>
+    </row>
+    <row r="94" spans="1:5" s="27" customFormat="1">
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+    </row>
+    <row r="95" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="7"/>
+    </row>
+    <row r="96" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1">
+      <c r="A96" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="8"/>
+    </row>
+    <row r="97" spans="1:3" s="6" customFormat="1" ht="72">
+      <c r="A97" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" s="39"/>
+    </row>
+    <row r="98" spans="1:3" s="6" customFormat="1">
+      <c r="A98" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="8"/>
+    </row>
+    <row r="99" spans="1:3" s="6" customFormat="1">
+      <c r="A99" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" s="8"/>
+    </row>
+    <row r="100" spans="1:3" s="6" customFormat="1" ht="302.39999999999998">
+      <c r="A100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" s="59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="6" customFormat="1">
+      <c r="A101" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="30"/>
+    </row>
+    <row r="102" spans="1:3" s="6" customFormat="1">
+      <c r="A102" s="5"/>
+      <c r="B102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="30"/>
+    </row>
+    <row r="103" spans="1:3" s="6" customFormat="1">
+      <c r="A103" s="5"/>
+      <c r="B103" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103" s="30"/>
+    </row>
+    <row r="104" spans="1:3" s="6" customFormat="1">
+      <c r="A104" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="8"/>
+    </row>
+    <row r="105" spans="1:3" s="6" customFormat="1">
+      <c r="A105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="8"/>
+    </row>
+    <row r="106" spans="1:3" s="45" customFormat="1">
+      <c r="B106" s="46"/>
+      <c r="C106" s="46"/>
+    </row>
+    <row r="107" spans="1:3" s="47" customFormat="1" ht="17.399999999999999">
+      <c r="B107" s="48"/>
+      <c r="C107" s="49"/>
+    </row>
+    <row r="108" spans="1:3" s="53" customFormat="1">
+      <c r="A108" s="50"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="52"/>
+    </row>
+    <row r="109" spans="1:3" s="53" customFormat="1">
+      <c r="A109" s="50"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="54"/>
+    </row>
+    <row r="110" spans="1:3" s="6" customFormat="1">
+      <c r="B110" s="10"/>
+      <c r="C110" s="8"/>
+    </row>
+    <row r="111" spans="1:3" s="6" customFormat="1">
+      <c r="B111" s="10"/>
+      <c r="C111" s="8"/>
+    </row>
+    <row r="112" spans="1:3" s="6" customFormat="1">
+      <c r="A112" s="5"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="31"/>
+    </row>
+    <row r="113" spans="1:3" s="6" customFormat="1">
+      <c r="A113" s="5"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="30"/>
+    </row>
+    <row r="114" spans="1:3" s="6" customFormat="1">
+      <c r="B114" s="10"/>
+      <c r="C114" s="8"/>
+    </row>
+    <row r="115" spans="1:3" s="6" customFormat="1">
+      <c r="B115" s="10"/>
+      <c r="C115" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C67" r:id="rId1"/>
+    <hyperlink ref="C13" r:id="rId2"/>
+    <hyperlink ref="C15" r:id="rId3"/>
+    <hyperlink ref="C16" r:id="rId4"/>
+    <hyperlink ref="C17" r:id="rId5"/>
+    <hyperlink ref="C18" r:id="rId6"/>
+    <hyperlink ref="C41" r:id="rId7"/>
+    <hyperlink ref="C42" r:id="rId8"/>
+    <hyperlink ref="C52" r:id="rId9"/>
+    <hyperlink ref="C55" r:id="rId10"/>
+    <hyperlink ref="C56" r:id="rId11"/>
+    <hyperlink ref="C57" r:id="rId12"/>
+    <hyperlink ref="C78" r:id="rId13"/>
+    <hyperlink ref="C89" r:id="rId14"/>
+    <hyperlink ref="E5" r:id="rId15"/>
+    <hyperlink ref="C90" r:id="rId16"/>
+    <hyperlink ref="E4" r:id="rId17"/>
+    <hyperlink ref="E3" r:id="rId18"/>
+    <hyperlink ref="C53" r:id="rId19"/>
+    <hyperlink ref="C54" r:id="rId20"/>
+    <hyperlink ref="C91" r:id="rId21"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E115"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.109375" style="12" customWidth="1"/>
@@ -3107,7 +4376,7 @@
     <col min="5" max="5" width="33" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="23.4">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -3116,13 +4385,13 @@
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
     </row>
-    <row r="2" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="22" customFormat="1">
       <c r="B2" s="20"/>
       <c r="C2" s="19"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="22" customFormat="1">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -3139,7 +4408,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="22" customFormat="1">
       <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
@@ -3156,7 +4425,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="23" customFormat="1">
       <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
@@ -3171,21 +4440,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="35" customFormat="1">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" spans="1:5" s="41" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" s="41" customFormat="1" ht="18" thickBot="1">
       <c r="A7" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="43"/>
     </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -3194,7 +4463,7 @@
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="6" customFormat="1">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -3203,7 +4472,7 @@
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="6" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
@@ -3212,7 +4481,7 @@
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="6" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -3221,7 +4490,7 @@
       </c>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="244.8">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -3232,7 +4501,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="6" customFormat="1">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -3241,37 +4510,37 @@
       </c>
       <c r="C13" s="40"/>
     </row>
-    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="6" customFormat="1">
       <c r="B14" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="40"/>
     </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="6" customFormat="1">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="40"/>
     </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="6" customFormat="1">
       <c r="B16" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="40"/>
     </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="B17" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="40"/>
     </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="40"/>
     </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="28.8">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -3282,7 +4551,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="6" customFormat="1">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
@@ -3291,18 +4560,18 @@
       </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="27" customFormat="1">
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
@@ -3311,7 +4580,7 @@
       </c>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="28.8">
       <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
@@ -3320,7 +4589,7 @@
       </c>
       <c r="C24" s="39"/>
     </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="6" customFormat="1">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
@@ -3329,7 +4598,7 @@
       </c>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="6" customFormat="1">
       <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
@@ -3340,7 +4609,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="201.6">
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
@@ -3351,7 +4620,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="6" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -3362,17 +4631,17 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="6" customFormat="1">
       <c r="A29" s="5"/>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="6" customFormat="1">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="6" customFormat="1">
       <c r="A31" s="6" t="s">
         <v>7</v>
       </c>
@@ -3381,18 +4650,18 @@
       </c>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="27" customFormat="1">
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
     </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A34" s="6" t="s">
         <v>0</v>
       </c>
@@ -3401,7 +4670,7 @@
       </c>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="6" customFormat="1">
       <c r="A35" s="6" t="s">
         <v>1</v>
       </c>
@@ -3410,7 +4679,7 @@
       </c>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="6" customFormat="1">
       <c r="A36" s="6" t="s">
         <v>2</v>
       </c>
@@ -3419,7 +4688,7 @@
       </c>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="6" customFormat="1">
       <c r="A37" s="6" t="s">
         <v>3</v>
       </c>
@@ -3428,7 +4697,7 @@
       </c>
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:3" s="6" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="216">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
@@ -3439,7 +4708,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="6" customFormat="1">
       <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
@@ -3448,50 +4717,50 @@
       </c>
       <c r="C39" s="40"/>
     </row>
-    <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="6" customFormat="1">
       <c r="B40" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C40" s="40"/>
     </row>
-    <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="6" customFormat="1">
       <c r="B41" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C41" s="40"/>
     </row>
-    <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="6" customFormat="1">
       <c r="B42" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C42" s="40"/>
     </row>
-    <row r="43" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="6" customFormat="1">
       <c r="A43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="6" customFormat="1">
       <c r="A44" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="27" customFormat="1">
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
     </row>
-    <row r="46" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A47" s="6" t="s">
         <v>0</v>
       </c>
@@ -3500,7 +4769,7 @@
       </c>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" s="6" customFormat="1">
       <c r="A48" s="6" t="s">
         <v>1</v>
       </c>
@@ -3509,7 +4778,7 @@
       </c>
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="6" customFormat="1">
       <c r="A49" s="6" t="s">
         <v>2</v>
       </c>
@@ -3518,7 +4787,7 @@
       </c>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" s="6" customFormat="1">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -3527,7 +4796,7 @@
       </c>
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="1:3" s="6" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" s="6" customFormat="1" ht="316.8">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -3538,7 +4807,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="6" customFormat="1">
       <c r="A52" s="6" t="s">
         <v>5</v>
       </c>
@@ -3547,62 +4816,62 @@
       </c>
       <c r="C52" s="40"/>
     </row>
-    <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" s="6" customFormat="1">
       <c r="B53" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C53" s="40"/>
     </row>
-    <row r="54" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" s="6" customFormat="1">
       <c r="B54" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C54" s="40"/>
     </row>
-    <row r="55" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" s="6" customFormat="1">
       <c r="B55" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C55" s="40"/>
     </row>
-    <row r="56" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" s="6" customFormat="1">
       <c r="B56" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C56" s="40"/>
     </row>
-    <row r="57" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" s="6" customFormat="1">
       <c r="B57" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C57" s="40"/>
     </row>
-    <row r="58" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" s="6" customFormat="1">
       <c r="A58" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" s="6" customFormat="1">
       <c r="A59" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" s="27" customFormat="1">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
     </row>
-    <row r="61" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A61" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3" s="6" customFormat="1" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" s="6" customFormat="1" ht="58.2" thickTop="1">
       <c r="A62" s="5" t="s">
         <v>0</v>
       </c>
@@ -3611,7 +4880,7 @@
       </c>
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" s="6" customFormat="1" ht="187.2">
       <c r="A63" s="5" t="s">
         <v>1</v>
       </c>
@@ -3620,7 +4889,7 @@
       </c>
       <c r="C63" s="39"/>
     </row>
-    <row r="64" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="6" customFormat="1">
       <c r="A64" s="6" t="s">
         <v>2</v>
       </c>
@@ -3629,7 +4898,7 @@
       </c>
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" s="6" customFormat="1">
       <c r="A65" s="6" t="s">
         <v>3</v>
       </c>
@@ -3638,7 +4907,7 @@
       </c>
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="1:3" s="6" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" s="6" customFormat="1" ht="172.8">
       <c r="A66" s="5" t="s">
         <v>4</v>
       </c>
@@ -3649,7 +4918,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" s="6" customFormat="1">
       <c r="A67" s="6" t="s">
         <v>5</v>
       </c>
@@ -3658,38 +4927,38 @@
       </c>
       <c r="C67" s="40"/>
     </row>
-    <row r="68" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" s="6" customFormat="1">
       <c r="B68" s="56" t="s">
         <v>50</v>
       </c>
       <c r="C68" s="55"/>
     </row>
-    <row r="69" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" s="6" customFormat="1">
       <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" s="6" customFormat="1">
       <c r="A70" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" s="27" customFormat="1">
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
     </row>
-    <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A72" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A73" s="5" t="s">
         <v>0</v>
       </c>
@@ -3698,7 +4967,7 @@
       </c>
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" s="6" customFormat="1" ht="201.6">
       <c r="A74" s="5" t="s">
         <v>1</v>
       </c>
@@ -3707,7 +4976,7 @@
       </c>
       <c r="C74" s="39"/>
     </row>
-    <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" s="6" customFormat="1">
       <c r="A75" s="6" t="s">
         <v>2</v>
       </c>
@@ -3716,7 +4985,7 @@
       </c>
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" s="6" customFormat="1">
       <c r="A76" s="6" t="s">
         <v>3</v>
       </c>
@@ -3725,7 +4994,7 @@
       </c>
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" s="6" customFormat="1" ht="201.6">
       <c r="A77" s="5" t="s">
         <v>4</v>
       </c>
@@ -3736,7 +5005,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" s="6" customFormat="1">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
@@ -3745,7 +5014,7 @@
       </c>
       <c r="C78" s="30"/>
     </row>
-    <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" s="6" customFormat="1">
       <c r="A79" s="5"/>
       <c r="B79" t="s">
         <v>68</v>
@@ -3754,7 +5023,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" s="6" customFormat="1">
       <c r="A80" s="6" t="s">
         <v>6</v>
       </c>
@@ -3765,7 +5034,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" s="6" customFormat="1">
       <c r="A81" s="6" t="s">
         <v>7</v>
       </c>
@@ -3774,18 +5043,18 @@
       </c>
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" s="27" customFormat="1">
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
     </row>
-    <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A83" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1">
       <c r="A84" s="5" t="s">
         <v>0</v>
       </c>
@@ -3794,7 +5063,7 @@
       </c>
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="1:5" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" s="6" customFormat="1" ht="115.2">
       <c r="A85" s="5" t="s">
         <v>1</v>
       </c>
@@ -3803,7 +5072,7 @@
       </c>
       <c r="C85" s="39"/>
     </row>
-    <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" s="6" customFormat="1">
       <c r="A86" s="6" t="s">
         <v>2</v>
       </c>
@@ -3812,7 +5081,7 @@
       </c>
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" s="6" customFormat="1">
       <c r="A87" s="6" t="s">
         <v>3</v>
       </c>
@@ -3821,7 +5090,7 @@
       </c>
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="1:5" s="6" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" s="6" customFormat="1" ht="244.8">
       <c r="A88" s="5" t="s">
         <v>4</v>
       </c>
@@ -3833,7 +5102,7 @@
       </c>
       <c r="E88" s="63"/>
     </row>
-    <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" s="6" customFormat="1">
       <c r="A89" s="5" t="s">
         <v>5</v>
       </c>
@@ -3842,46 +5111,46 @@
       </c>
       <c r="C89" s="30"/>
     </row>
-    <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" s="6" customFormat="1">
       <c r="A90" s="5"/>
       <c r="B90" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C90" s="30"/>
     </row>
-    <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" s="6" customFormat="1">
       <c r="A91" s="5"/>
       <c r="B91" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C91" s="30"/>
     </row>
-    <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" s="6" customFormat="1">
       <c r="A92" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" s="6" customFormat="1">
       <c r="A93" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" s="27" customFormat="1">
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
     </row>
-    <row r="95" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A95" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1">
       <c r="A96" s="5" t="s">
         <v>0</v>
       </c>
@@ -3890,7 +5159,7 @@
       </c>
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="1:3" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" s="6" customFormat="1" ht="72">
       <c r="A97" s="5" t="s">
         <v>1</v>
       </c>
@@ -3899,7 +5168,7 @@
       </c>
       <c r="C97" s="39"/>
     </row>
-    <row r="98" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" s="6" customFormat="1">
       <c r="A98" s="6" t="s">
         <v>2</v>
       </c>
@@ -3908,7 +5177,7 @@
       </c>
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" s="6" customFormat="1">
       <c r="A99" s="6" t="s">
         <v>3</v>
       </c>
@@ -3917,7 +5186,7 @@
       </c>
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="1:3" s="6" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" s="6" customFormat="1" ht="302.39999999999998">
       <c r="A100" s="5" t="s">
         <v>4</v>
       </c>
@@ -3928,7 +5197,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" s="6" customFormat="1">
       <c r="A101" s="5" t="s">
         <v>5</v>
       </c>
@@ -3937,75 +5206,75 @@
       </c>
       <c r="C101" s="30"/>
     </row>
-    <row r="102" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" s="6" customFormat="1">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
         <v>60</v>
       </c>
       <c r="C102" s="30"/>
     </row>
-    <row r="103" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" s="6" customFormat="1">
       <c r="A103" s="5"/>
       <c r="B103" t="s">
         <v>61</v>
       </c>
       <c r="C103" s="30"/>
     </row>
-    <row r="104" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" s="6" customFormat="1">
       <c r="A104" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" s="6" customFormat="1">
       <c r="A105" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" s="45" customFormat="1">
       <c r="B106" s="46"/>
       <c r="C106" s="46"/>
     </row>
-    <row r="107" spans="1:3" s="47" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" s="47" customFormat="1" ht="17.399999999999999">
       <c r="B107" s="48"/>
       <c r="C107" s="49"/>
     </row>
-    <row r="108" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" s="53" customFormat="1">
       <c r="A108" s="50"/>
       <c r="B108" s="51"/>
       <c r="C108" s="52"/>
     </row>
-    <row r="109" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" s="53" customFormat="1">
       <c r="A109" s="50"/>
       <c r="B109" s="51"/>
       <c r="C109" s="54"/>
     </row>
-    <row r="110" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" s="6" customFormat="1">
       <c r="B110" s="10"/>
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" s="6" customFormat="1">
       <c r="B111" s="10"/>
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" s="6" customFormat="1">
       <c r="A112" s="5"/>
       <c r="B112" s="13"/>
       <c r="C112" s="31"/>
     </row>
-    <row r="113" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" s="6" customFormat="1">
       <c r="A113" s="5"/>
       <c r="B113" s="25"/>
       <c r="C113" s="30"/>
     </row>
-    <row r="114" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" s="6" customFormat="1">
       <c r="B114" s="10"/>
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" s="6" customFormat="1">
       <c r="B115" s="10"/>
       <c r="C115" s="8"/>
     </row>
@@ -4023,16 +5292,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="6" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="40.5546875" style="12" customWidth="1"/>
@@ -4041,7 +5310,7 @@
     <col min="5" max="5" width="33" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="23.4">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -4050,13 +5319,13 @@
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
     </row>
-    <row r="2" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="22" customFormat="1">
       <c r="B2" s="20"/>
       <c r="C2" s="19"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="22" customFormat="1">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -4073,7 +5342,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="22" customFormat="1">
       <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
@@ -4090,7 +5359,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="23" customFormat="1">
       <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
@@ -4105,21 +5374,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="35" customFormat="1">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" spans="1:5" s="41" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" s="41" customFormat="1" ht="18" thickBot="1">
       <c r="A7" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="43"/>
     </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -4128,7 +5397,7 @@
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="6" customFormat="1">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -4137,7 +5406,7 @@
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="6" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
@@ -4146,7 +5415,7 @@
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="6" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -4155,7 +5424,7 @@
       </c>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="244.8">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -4166,7 +5435,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="6" customFormat="1">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -4175,19 +5444,19 @@
       </c>
       <c r="C13" s="40"/>
     </row>
-    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="6" customFormat="1">
       <c r="B14" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="40"/>
     </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="6" customFormat="1">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="40"/>
     </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="6" customFormat="1">
       <c r="B16" s="10" t="s">
         <v>62</v>
       </c>
@@ -4195,13 +5464,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="B17" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="40"/>
     </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -4210,7 +5479,7 @@
       </c>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
@@ -4219,18 +5488,18 @@
       </c>
       <c r="C19"/>
     </row>
-    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="27" customFormat="1">
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A22" s="5" t="s">
         <v>0</v>
       </c>
@@ -4239,7 +5508,7 @@
       </c>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="28.8">
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
@@ -4248,7 +5517,7 @@
       </c>
       <c r="C23" s="39"/>
     </row>
-    <row r="24" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="6" customFormat="1">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
@@ -4257,7 +5526,7 @@
       </c>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="6" customFormat="1">
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
@@ -4266,7 +5535,7 @@
       </c>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="6" customFormat="1" ht="201.6">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
@@ -4277,7 +5546,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="6" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -4286,35 +5555,35 @@
       </c>
       <c r="C27" s="30"/>
     </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="6" customFormat="1">
       <c r="A28" s="5"/>
     </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="6" customFormat="1">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="6" customFormat="1">
       <c r="A30" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="27" customFormat="1">
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
     </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A32" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="7"/>
     </row>
-    <row r="33" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A33" s="6" t="s">
         <v>0</v>
       </c>
@@ -4323,7 +5592,7 @@
       </c>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="6" customFormat="1">
       <c r="A34" s="6" t="s">
         <v>1</v>
       </c>
@@ -4332,7 +5601,7 @@
       </c>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="6" customFormat="1">
       <c r="A35" s="6" t="s">
         <v>2</v>
       </c>
@@ -4341,7 +5610,7 @@
       </c>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="6" customFormat="1">
       <c r="A36" s="6" t="s">
         <v>3</v>
       </c>
@@ -4350,7 +5619,7 @@
       </c>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="1:3" s="6" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="6" customFormat="1" ht="216">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
@@ -4361,7 +5630,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="6" customFormat="1">
       <c r="A38" s="6" t="s">
         <v>5</v>
       </c>
@@ -4370,29 +5639,29 @@
       </c>
       <c r="C38" s="40"/>
     </row>
-    <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="6" customFormat="1">
       <c r="B39" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C39" s="40"/>
     </row>
-    <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="6" customFormat="1">
       <c r="B40" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1">
+      <c r="B41" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C41" s="40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="6" customFormat="1">
       <c r="A42" s="6" t="s">
         <v>6</v>
       </c>
@@ -4401,7 +5670,7 @@
       </c>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="6" customFormat="1">
       <c r="A43" s="6" t="s">
         <v>7</v>
       </c>
@@ -4410,18 +5679,18 @@
       </c>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="27" customFormat="1">
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
     </row>
-    <row r="45" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A46" s="6" t="s">
         <v>0</v>
       </c>
@@ -4430,7 +5699,7 @@
       </c>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="6" customFormat="1">
       <c r="A47" s="6" t="s">
         <v>1</v>
       </c>
@@ -4439,7 +5708,7 @@
       </c>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" s="6" customFormat="1">
       <c r="A48" s="6" t="s">
         <v>2</v>
       </c>
@@ -4448,7 +5717,7 @@
       </c>
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="6" customFormat="1">
       <c r="A49" s="6" t="s">
         <v>3</v>
       </c>
@@ -4457,7 +5726,7 @@
       </c>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:3" s="6" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" s="6" customFormat="1" ht="316.8">
       <c r="A50" s="5" t="s">
         <v>4</v>
       </c>
@@ -4468,7 +5737,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" s="6" customFormat="1">
       <c r="A51" s="6" t="s">
         <v>5</v>
       </c>
@@ -4477,19 +5746,19 @@
       </c>
       <c r="C51" s="40"/>
     </row>
-    <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="6" customFormat="1">
       <c r="B52" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C52" s="40"/>
     </row>
-    <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" s="6" customFormat="1">
       <c r="B53" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="40"/>
     </row>
-    <row r="54" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" s="6" customFormat="1">
       <c r="B54" s="10" t="s">
         <v>66</v>
       </c>
@@ -4497,7 +5766,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" s="6" customFormat="1">
       <c r="B55" s="10" t="s">
         <v>67</v>
       </c>
@@ -4505,13 +5774,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" s="6" customFormat="1">
       <c r="B56" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="40"/>
     </row>
-    <row r="57" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" s="6" customFormat="1">
       <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
@@ -4520,7 +5789,7 @@
       </c>
       <c r="C57" s="8"/>
     </row>
-    <row r="58" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" s="6" customFormat="1">
       <c r="A58" s="6" t="s">
         <v>7</v>
       </c>
@@ -4529,18 +5798,18 @@
       </c>
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" s="27" customFormat="1">
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
     </row>
-    <row r="60" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A60" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:3" s="6" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" s="6" customFormat="1" ht="43.8" thickTop="1">
       <c r="A61" s="5" t="s">
         <v>0</v>
       </c>
@@ -4549,7 +5818,7 @@
       </c>
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" s="6" customFormat="1" ht="187.2">
       <c r="A62" s="5" t="s">
         <v>1</v>
       </c>
@@ -4558,7 +5827,7 @@
       </c>
       <c r="C62" s="39"/>
     </row>
-    <row r="63" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" s="6" customFormat="1">
       <c r="A63" s="6" t="s">
         <v>2</v>
       </c>
@@ -4567,7 +5836,7 @@
       </c>
       <c r="C63" s="8"/>
     </row>
-    <row r="64" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="6" customFormat="1">
       <c r="A64" s="6" t="s">
         <v>3</v>
       </c>
@@ -4576,7 +5845,7 @@
       </c>
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="1:3" s="6" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" s="6" customFormat="1" ht="172.8">
       <c r="A65" s="5" t="s">
         <v>4</v>
       </c>
@@ -4587,7 +5856,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" s="6" customFormat="1">
       <c r="A66" s="6" t="s">
         <v>5</v>
       </c>
@@ -4596,38 +5865,38 @@
       </c>
       <c r="C66" s="40"/>
     </row>
-    <row r="67" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" s="6" customFormat="1">
       <c r="B67" s="56" t="s">
         <v>50</v>
       </c>
       <c r="C67" s="55"/>
     </row>
-    <row r="68" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" s="6" customFormat="1">
       <c r="A68" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="8"/>
     </row>
-    <row r="69" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" s="6" customFormat="1">
       <c r="A69" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" s="27" customFormat="1">
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
     </row>
-    <row r="71" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A71" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A72" s="5" t="s">
         <v>0</v>
       </c>
@@ -4636,7 +5905,7 @@
       </c>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" s="6" customFormat="1" ht="187.2">
       <c r="A73" s="5" t="s">
         <v>1</v>
       </c>
@@ -4645,7 +5914,7 @@
       </c>
       <c r="C73" s="39"/>
     </row>
-    <row r="74" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" s="6" customFormat="1">
       <c r="A74" s="6" t="s">
         <v>2</v>
       </c>
@@ -4654,7 +5923,7 @@
       </c>
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" s="6" customFormat="1">
       <c r="A75" s="6" t="s">
         <v>3</v>
       </c>
@@ -4663,7 +5932,7 @@
       </c>
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" s="6" customFormat="1" ht="201.6">
       <c r="A76" s="5" t="s">
         <v>4</v>
       </c>
@@ -4674,7 +5943,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" s="6" customFormat="1">
       <c r="A77" s="5" t="s">
         <v>5</v>
       </c>
@@ -4685,19 +5954,19 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" s="6" customFormat="1">
       <c r="A78" s="5"/>
       <c r="B78" t="s">
         <v>68</v>
       </c>
       <c r="C78" s="30"/>
     </row>
-    <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" s="6" customFormat="1">
       <c r="A79" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" s="6" customFormat="1">
       <c r="A80" s="6" t="s">
         <v>7</v>
       </c>
@@ -4706,18 +5975,18 @@
       </c>
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" s="27" customFormat="1">
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
     </row>
-    <row r="82" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A82" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1">
       <c r="A83" s="5" t="s">
         <v>0</v>
       </c>
@@ -4726,7 +5995,7 @@
       </c>
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="1:5" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" s="6" customFormat="1" ht="115.2">
       <c r="A84" s="5" t="s">
         <v>1</v>
       </c>
@@ -4735,7 +6004,7 @@
       </c>
       <c r="C84" s="39"/>
     </row>
-    <row r="85" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" s="6" customFormat="1">
       <c r="A85" s="6" t="s">
         <v>2</v>
       </c>
@@ -4744,7 +6013,7 @@
       </c>
       <c r="C85" s="8"/>
     </row>
-    <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" s="6" customFormat="1">
       <c r="A86" s="6" t="s">
         <v>3</v>
       </c>
@@ -4753,7 +6022,7 @@
       </c>
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="1:5" s="6" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" s="6" customFormat="1" ht="244.8">
       <c r="A87" s="5" t="s">
         <v>4</v>
       </c>
@@ -4765,7 +6034,7 @@
       </c>
       <c r="E87" s="63"/>
     </row>
-    <row r="88" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" s="6" customFormat="1">
       <c r="A88" s="5" t="s">
         <v>5</v>
       </c>
@@ -4776,28 +6045,28 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" s="6" customFormat="1">
       <c r="A89" s="5"/>
       <c r="B89" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C89" s="30"/>
     </row>
-    <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" s="6" customFormat="1">
       <c r="A90" s="5"/>
       <c r="B90" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C90" s="30"/>
     </row>
-    <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" s="6" customFormat="1">
       <c r="A91" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="8"/>
     </row>
-    <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" s="6" customFormat="1">
       <c r="A92" s="6" t="s">
         <v>7</v>
       </c>
@@ -4806,18 +6075,18 @@
       </c>
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" s="27" customFormat="1">
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
     </row>
-    <row r="94" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A94" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A95" s="5" t="s">
         <v>0</v>
       </c>
@@ -4826,7 +6095,7 @@
       </c>
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="1:5" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" s="6" customFormat="1" ht="72">
       <c r="A96" s="5" t="s">
         <v>1</v>
       </c>
@@ -4835,7 +6104,7 @@
       </c>
       <c r="C96" s="39"/>
     </row>
-    <row r="97" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" s="6" customFormat="1">
       <c r="A97" s="6" t="s">
         <v>2</v>
       </c>
@@ -4844,7 +6113,7 @@
       </c>
       <c r="C97" s="8"/>
     </row>
-    <row r="98" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" s="6" customFormat="1">
       <c r="A98" s="6" t="s">
         <v>3</v>
       </c>
@@ -4853,7 +6122,7 @@
       </c>
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="1:3" s="6" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" s="6" customFormat="1" ht="302.39999999999998">
       <c r="A99" s="5" t="s">
         <v>4</v>
       </c>
@@ -4864,7 +6133,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" s="6" customFormat="1">
       <c r="A100" s="5" t="s">
         <v>5</v>
       </c>
@@ -4873,75 +6142,75 @@
       </c>
       <c r="C100" s="30"/>
     </row>
-    <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" s="6" customFormat="1">
       <c r="A101" s="5"/>
       <c r="B101" t="s">
         <v>60</v>
       </c>
       <c r="C101" s="30"/>
     </row>
-    <row r="102" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" s="6" customFormat="1">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
         <v>61</v>
       </c>
       <c r="C102" s="30"/>
     </row>
-    <row r="103" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" s="6" customFormat="1">
       <c r="A103" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="8"/>
     </row>
-    <row r="104" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" s="6" customFormat="1">
       <c r="A104" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" s="45" customFormat="1">
       <c r="B105" s="46"/>
       <c r="C105" s="46"/>
     </row>
-    <row r="106" spans="1:3" s="47" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" s="47" customFormat="1" ht="17.399999999999999">
       <c r="B106" s="48"/>
       <c r="C106" s="49"/>
     </row>
-    <row r="107" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" s="53" customFormat="1">
       <c r="A107" s="50"/>
       <c r="B107" s="51"/>
       <c r="C107" s="52"/>
     </row>
-    <row r="108" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" s="53" customFormat="1">
       <c r="A108" s="50"/>
       <c r="B108" s="51"/>
       <c r="C108" s="54"/>
     </row>
-    <row r="109" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" s="6" customFormat="1">
       <c r="B109" s="10"/>
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" s="6" customFormat="1">
       <c r="B110" s="10"/>
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" s="6" customFormat="1">
       <c r="A111" s="5"/>
       <c r="B111" s="13"/>
       <c r="C111" s="31"/>
     </row>
-    <row r="112" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" s="6" customFormat="1">
       <c r="A112" s="5"/>
       <c r="B112" s="25"/>
       <c r="C112" s="30"/>
     </row>
-    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:3" s="6" customFormat="1">
       <c r="B113" s="10"/>
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:3" s="6" customFormat="1">
       <c r="B114" s="10"/>
       <c r="C114" s="8"/>
     </row>
@@ -4960,16 +6229,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="6" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="40.5546875" style="12" customWidth="1"/>
@@ -4978,7 +6247,7 @@
     <col min="5" max="5" width="33" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="23.4">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -4987,13 +6256,13 @@
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
     </row>
-    <row r="2" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="22" customFormat="1">
       <c r="B2" s="20"/>
       <c r="C2" s="19"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="22" customFormat="1">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -5010,7 +6279,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="22" customFormat="1">
       <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
@@ -5027,12 +6296,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="23" customFormat="1">
       <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="66">
-        <v>42264</v>
+      <c r="B5" s="67">
+        <v>42271</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>70</v>
@@ -5042,21 +6311,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="35" customFormat="1">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" spans="1:5" s="41" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" s="41" customFormat="1" ht="18" thickBot="1">
       <c r="A7" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="43"/>
     </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -5065,7 +6334,7 @@
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="6" customFormat="1">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -5074,7 +6343,7 @@
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="6" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
@@ -5083,7 +6352,7 @@
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="6" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -5092,7 +6361,7 @@
       </c>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="244.8">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -5103,40 +6372,50 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="6" customFormat="1">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="40"/>
-    </row>
-    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1">
       <c r="B14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="40"/>
-    </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="40"/>
-    </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1">
       <c r="B16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="40"/>
-    </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="B17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="40"/>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
@@ -5144,7 +6423,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -5153,25 +6432,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="6" customFormat="1">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="70" t="s">
+        <v>108</v>
+      </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="27" customFormat="1">
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
@@ -5180,7 +6461,7 @@
       </c>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="28.8">
       <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
@@ -5189,7 +6470,7 @@
       </c>
       <c r="C24" s="39"/>
     </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="6" customFormat="1">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
@@ -5198,7 +6479,7 @@
       </c>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="6" customFormat="1">
       <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
@@ -5207,7 +6488,7 @@
       </c>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="201.6">
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
@@ -5218,44 +6499,46 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="6" customFormat="1">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="30"/>
-    </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1">
       <c r="A29" s="5"/>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="6" customFormat="1">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="6" customFormat="1">
       <c r="A31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="27" customFormat="1">
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
     </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A34" s="6" t="s">
         <v>0</v>
       </c>
@@ -5264,7 +6547,7 @@
       </c>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="6" customFormat="1">
       <c r="A35" s="6" t="s">
         <v>1</v>
       </c>
@@ -5273,7 +6556,7 @@
       </c>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="6" customFormat="1">
       <c r="A36" s="6" t="s">
         <v>2</v>
       </c>
@@ -5282,7 +6565,7 @@
       </c>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="6" customFormat="1">
       <c r="A37" s="6" t="s">
         <v>3</v>
       </c>
@@ -5291,7 +6574,7 @@
       </c>
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:3" s="6" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="216">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
@@ -5302,7 +6585,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="6" customFormat="1">
       <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
@@ -5311,40 +6594,56 @@
       </c>
       <c r="C39" s="40"/>
     </row>
-    <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="6" customFormat="1">
       <c r="B40" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="40"/>
-    </row>
-    <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1">
+      <c r="B41" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="6" customFormat="1">
+      <c r="B42" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="6" customFormat="1">
       <c r="A43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="6" customFormat="1">
       <c r="A44" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="27" customFormat="1">
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
     </row>
-    <row r="46" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A47" s="6" t="s">
         <v>0</v>
       </c>
@@ -5353,7 +6652,7 @@
       </c>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" s="6" customFormat="1">
       <c r="A48" s="6" t="s">
         <v>1</v>
       </c>
@@ -5362,7 +6661,7 @@
       </c>
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="6" customFormat="1">
       <c r="A49" s="6" t="s">
         <v>2</v>
       </c>
@@ -5371,7 +6670,7 @@
       </c>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" s="6" customFormat="1">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -5380,7 +6679,7 @@
       </c>
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="1:3" s="6" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" s="6" customFormat="1" ht="316.8">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -5391,40 +6690,50 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="6" customFormat="1">
       <c r="A52" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="40"/>
-    </row>
-    <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="6" customFormat="1">
       <c r="B53" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="40"/>
-    </row>
-    <row r="54" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="6" customFormat="1">
       <c r="B54" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="40"/>
-    </row>
-    <row r="55" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="6" customFormat="1">
       <c r="B55" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="40"/>
-    </row>
-    <row r="56" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="6" customFormat="1">
       <c r="B56" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="40"/>
-    </row>
-    <row r="57" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="6" customFormat="1">
       <c r="B57" s="10" t="s">
         <v>50</v>
       </c>
@@ -5432,32 +6741,34 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" s="6" customFormat="1">
       <c r="A58" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" s="6" customFormat="1">
       <c r="A59" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="10"/>
+      <c r="B59" s="70" t="s">
+        <v>108</v>
+      </c>
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" s="27" customFormat="1">
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
     </row>
-    <row r="61" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A61" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3" s="6" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" s="6" customFormat="1" ht="43.8" thickTop="1">
       <c r="A62" s="5" t="s">
         <v>0</v>
       </c>
@@ -5466,7 +6777,7 @@
       </c>
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" s="6" customFormat="1" ht="187.2">
       <c r="A63" s="5" t="s">
         <v>1</v>
       </c>
@@ -5475,7 +6786,7 @@
       </c>
       <c r="C63" s="39"/>
     </row>
-    <row r="64" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="6" customFormat="1">
       <c r="A64" s="6" t="s">
         <v>2</v>
       </c>
@@ -5484,7 +6795,7 @@
       </c>
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" s="6" customFormat="1">
       <c r="A65" s="6" t="s">
         <v>3</v>
       </c>
@@ -5493,7 +6804,7 @@
       </c>
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="1:3" s="6" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" s="6" customFormat="1" ht="172.8">
       <c r="A66" s="5" t="s">
         <v>4</v>
       </c>
@@ -5504,16 +6815,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" s="6" customFormat="1">
       <c r="A67" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="40"/>
-    </row>
-    <row r="68" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="6" customFormat="1">
       <c r="B68" s="56" t="s">
         <v>50</v>
       </c>
@@ -5521,36 +6834,36 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:3" s="6" customFormat="1">
+      <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="38" t="s">
-        <v>123</v>
+      <c r="B69" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" s="6" customFormat="1">
       <c r="A70" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" s="27" customFormat="1">
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
     </row>
-    <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A72" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A73" s="5" t="s">
         <v>0</v>
       </c>
@@ -5559,7 +6872,7 @@
       </c>
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="1:3" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" s="6" customFormat="1" ht="187.2">
       <c r="A74" s="5" t="s">
         <v>1</v>
       </c>
@@ -5568,7 +6881,7 @@
       </c>
       <c r="C74" s="39"/>
     </row>
-    <row r="75" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" s="6" customFormat="1">
       <c r="A75" s="6" t="s">
         <v>2</v>
       </c>
@@ -5577,7 +6890,7 @@
       </c>
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" s="6" customFormat="1">
       <c r="A76" s="6" t="s">
         <v>3</v>
       </c>
@@ -5586,7 +6899,7 @@
       </c>
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="1:3" s="6" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" s="6" customFormat="1" ht="201.6">
       <c r="A77" s="5" t="s">
         <v>4</v>
       </c>
@@ -5597,48 +6910,52 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" s="6" customFormat="1">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B78" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="30"/>
-    </row>
-    <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="6" customFormat="1">
       <c r="A79" s="5"/>
       <c r="B79" t="s">
         <v>68</v>
       </c>
-      <c r="C79" s="30"/>
-    </row>
-    <row r="80" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="6" customFormat="1">
       <c r="A80" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" s="6" customFormat="1">
       <c r="A81" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" s="27" customFormat="1">
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
     </row>
-    <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A83" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1">
       <c r="A84" s="5" t="s">
         <v>0</v>
       </c>
@@ -5647,7 +6964,7 @@
       </c>
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="1:5" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" s="6" customFormat="1" ht="115.2">
       <c r="A85" s="5" t="s">
         <v>1</v>
       </c>
@@ -5656,7 +6973,7 @@
       </c>
       <c r="C85" s="39"/>
     </row>
-    <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" s="6" customFormat="1">
       <c r="A86" s="6" t="s">
         <v>2</v>
       </c>
@@ -5665,7 +6982,7 @@
       </c>
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" s="6" customFormat="1">
       <c r="A87" s="6" t="s">
         <v>3</v>
       </c>
@@ -5674,7 +6991,7 @@
       </c>
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="1:5" s="6" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" s="6" customFormat="1" ht="244.8">
       <c r="A88" s="5" t="s">
         <v>4</v>
       </c>
@@ -5686,55 +7003,61 @@
       </c>
       <c r="E88" s="63"/>
     </row>
-    <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" s="6" customFormat="1">
       <c r="A89" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C89" s="30"/>
-    </row>
-    <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="6" customFormat="1">
       <c r="A90" s="5"/>
       <c r="B90" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C90" s="30"/>
-    </row>
-    <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="6" customFormat="1">
       <c r="A91" s="5"/>
       <c r="B91" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C91" s="30"/>
-    </row>
-    <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="6" customFormat="1">
       <c r="A92" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" s="6" customFormat="1">
       <c r="A93" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" s="27" customFormat="1">
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
     </row>
-    <row r="95" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A95" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1">
       <c r="A96" s="5" t="s">
         <v>0</v>
       </c>
@@ -5743,7 +7066,7 @@
       </c>
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="1:3" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" s="6" customFormat="1" ht="72">
       <c r="A97" s="5" t="s">
         <v>1</v>
       </c>
@@ -5752,7 +7075,7 @@
       </c>
       <c r="C97" s="39"/>
     </row>
-    <row r="98" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" s="6" customFormat="1">
       <c r="A98" s="6" t="s">
         <v>2</v>
       </c>
@@ -5761,7 +7084,7 @@
       </c>
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" s="6" customFormat="1">
       <c r="A99" s="6" t="s">
         <v>3</v>
       </c>
@@ -5770,7 +7093,7 @@
       </c>
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="1:3" s="6" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" s="6" customFormat="1" ht="302.39999999999998">
       <c r="A100" s="5" t="s">
         <v>4</v>
       </c>
@@ -5781,7 +7104,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" s="6" customFormat="1">
       <c r="A101" s="5" t="s">
         <v>5</v>
       </c>
@@ -5790,88 +7113,1099 @@
       </c>
       <c r="C101" s="30"/>
     </row>
-    <row r="102" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" s="6" customFormat="1">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
         <v>60</v>
       </c>
       <c r="C102" s="30"/>
     </row>
-    <row r="103" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" s="6" customFormat="1">
       <c r="A103" s="5"/>
       <c r="B103" t="s">
         <v>61</v>
       </c>
       <c r="C103" s="30"/>
     </row>
-    <row r="104" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" s="6" customFormat="1">
       <c r="A104" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="10"/>
+      <c r="B104" s="10" t="s">
+        <v>148</v>
+      </c>
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" s="6" customFormat="1">
       <c r="A105" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="10"/>
+      <c r="B105" s="70" t="s">
+        <v>149</v>
+      </c>
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" s="45" customFormat="1">
       <c r="B106" s="46"/>
       <c r="C106" s="46"/>
     </row>
-    <row r="107" spans="1:3" s="47" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" s="47" customFormat="1" ht="17.399999999999999">
       <c r="B107" s="48"/>
       <c r="C107" s="49"/>
     </row>
-    <row r="108" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" s="53" customFormat="1">
       <c r="A108" s="50"/>
       <c r="B108" s="51"/>
       <c r="C108" s="52"/>
     </row>
-    <row r="109" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" s="53" customFormat="1">
       <c r="A109" s="50"/>
       <c r="B109" s="51"/>
       <c r="C109" s="54"/>
     </row>
-    <row r="110" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" s="6" customFormat="1">
       <c r="B110" s="10"/>
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" s="6" customFormat="1">
       <c r="B111" s="10"/>
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" s="6" customFormat="1">
       <c r="A112" s="5"/>
       <c r="B112" s="13"/>
       <c r="C112" s="31"/>
     </row>
-    <row r="113" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" s="6" customFormat="1">
       <c r="A113" s="5"/>
       <c r="B113" s="25"/>
       <c r="C113" s="30"/>
     </row>
-    <row r="114" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" s="6" customFormat="1">
       <c r="B114" s="10"/>
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" s="6" customFormat="1">
       <c r="B115" s="10"/>
       <c r="C115" s="8"/>
     </row>
+    <row r="116" spans="1:5">
+      <c r="E116" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1"/>
-    <hyperlink ref="C57" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E3" r:id="rId5"/>
-    <hyperlink ref="C68" r:id="rId6"/>
+    <hyperlink ref="C67" r:id="rId1"/>
+    <hyperlink ref="C13" r:id="rId2"/>
+    <hyperlink ref="C15" r:id="rId3"/>
+    <hyperlink ref="C16" r:id="rId4"/>
+    <hyperlink ref="C17" r:id="rId5"/>
+    <hyperlink ref="C18" r:id="rId6"/>
+    <hyperlink ref="C41" r:id="rId7"/>
+    <hyperlink ref="C42" r:id="rId8"/>
+    <hyperlink ref="C52" r:id="rId9"/>
+    <hyperlink ref="C55" r:id="rId10"/>
+    <hyperlink ref="C56" r:id="rId11"/>
+    <hyperlink ref="C57" r:id="rId12"/>
+    <hyperlink ref="C78" r:id="rId13"/>
+    <hyperlink ref="C89" r:id="rId14"/>
+    <hyperlink ref="E5" r:id="rId15"/>
+    <hyperlink ref="C90" r:id="rId16"/>
+    <hyperlink ref="E4" r:id="rId17"/>
+    <hyperlink ref="E3" r:id="rId18"/>
+    <hyperlink ref="C53" r:id="rId19"/>
+    <hyperlink ref="C54" r:id="rId20"/>
+    <hyperlink ref="C91" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="18" customFormat="1" ht="23.4">
+      <c r="A1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" s="22" customFormat="1">
+      <c r="B2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" s="22" customFormat="1">
+      <c r="A3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="22" customFormat="1">
+      <c r="A4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="23" customFormat="1">
+      <c r="A5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="67">
+        <v>42271</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="35" customFormat="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+    </row>
+    <row r="7" spans="1:5" s="41" customFormat="1" ht="18" thickBot="1">
+      <c r="A7" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+    </row>
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1">
+      <c r="A8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1">
+      <c r="A9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" s="6" customFormat="1">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="244.8">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1">
+      <c r="B14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1">
+      <c r="B15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1">
+      <c r="B16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1">
+      <c r="B17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1">
+      <c r="B18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1">
+      <c r="A19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1">
+      <c r="A20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" s="27" customFormat="1">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
+      <c r="A23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="28.8">
+      <c r="A24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="39"/>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1">
+      <c r="A25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1">
+      <c r="A26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="201.6">
+      <c r="A27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1">
+      <c r="A28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1">
+      <c r="A30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" s="6" customFormat="1">
+      <c r="A31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" s="27" customFormat="1">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+    </row>
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
+      <c r="A34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" s="6" customFormat="1">
+      <c r="A35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1">
+      <c r="A36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1">
+      <c r="A37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="216">
+      <c r="A38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="6" customFormat="1">
+      <c r="A39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="40"/>
+    </row>
+    <row r="40" spans="1:3" s="6" customFormat="1">
+      <c r="B40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1">
+      <c r="B41" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="6" customFormat="1">
+      <c r="B42" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="6" customFormat="1">
+      <c r="A43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" s="6" customFormat="1">
+      <c r="A44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:3" s="27" customFormat="1">
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+    </row>
+    <row r="46" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
+      <c r="A47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" s="6" customFormat="1">
+      <c r="A48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" s="6" customFormat="1">
+      <c r="A49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" s="6" customFormat="1">
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="1:3" s="6" customFormat="1" ht="316.8">
+      <c r="A51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="6" customFormat="1">
+      <c r="A52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="6" customFormat="1">
+      <c r="B53" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="6" customFormat="1">
+      <c r="B54" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="6" customFormat="1">
+      <c r="B55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="6" customFormat="1">
+      <c r="B56" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="6" customFormat="1">
+      <c r="B57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="6" customFormat="1">
+      <c r="A58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="1:3" s="6" customFormat="1">
+      <c r="A59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="1:3" s="27" customFormat="1">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+    </row>
+    <row r="61" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="1:3" s="6" customFormat="1" ht="43.8" thickTop="1">
+      <c r="A62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="1:3" s="6" customFormat="1" ht="187.2">
+      <c r="A63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="39"/>
+    </row>
+    <row r="64" spans="1:3" s="6" customFormat="1">
+      <c r="A64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" spans="1:3" s="6" customFormat="1">
+      <c r="A65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="1:3" s="6" customFormat="1" ht="172.8">
+      <c r="A66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="6" customFormat="1">
+      <c r="A67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="6" customFormat="1">
+      <c r="B68" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="6" customFormat="1">
+      <c r="A69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="8"/>
+    </row>
+    <row r="70" spans="1:3" s="6" customFormat="1">
+      <c r="A70" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="8"/>
+    </row>
+    <row r="71" spans="1:3" s="27" customFormat="1">
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+    </row>
+    <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A72" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
+      <c r="A73" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="8"/>
+    </row>
+    <row r="74" spans="1:3" s="6" customFormat="1" ht="187.2">
+      <c r="A74" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="39"/>
+    </row>
+    <row r="75" spans="1:3" s="6" customFormat="1">
+      <c r="A75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="8"/>
+    </row>
+    <row r="76" spans="1:3" s="6" customFormat="1">
+      <c r="A76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="8"/>
+    </row>
+    <row r="77" spans="1:3" s="6" customFormat="1" ht="201.6">
+      <c r="A77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="6" customFormat="1">
+      <c r="A78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="6" customFormat="1">
+      <c r="A79" s="5"/>
+      <c r="B79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="6" customFormat="1">
+      <c r="A80" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" s="6" customFormat="1">
+      <c r="A81" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="8"/>
+    </row>
+    <row r="82" spans="1:5" s="27" customFormat="1">
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+    </row>
+    <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A83" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="7"/>
+    </row>
+    <row r="84" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1">
+      <c r="A84" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="8"/>
+    </row>
+    <row r="85" spans="1:5" s="6" customFormat="1" ht="115.2">
+      <c r="A85" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="39"/>
+    </row>
+    <row r="86" spans="1:5" s="6" customFormat="1">
+      <c r="A86" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="8"/>
+    </row>
+    <row r="87" spans="1:5" s="6" customFormat="1">
+      <c r="A87" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" s="6" customFormat="1" ht="244.8">
+      <c r="A88" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" s="63"/>
+    </row>
+    <row r="89" spans="1:5" s="6" customFormat="1">
+      <c r="A89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="6" customFormat="1">
+      <c r="A90" s="5"/>
+      <c r="B90" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="6" customFormat="1">
+      <c r="A91" s="5"/>
+      <c r="B91" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="6" customFormat="1">
+      <c r="A92" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="8"/>
+    </row>
+    <row r="93" spans="1:5" s="6" customFormat="1">
+      <c r="A93" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="8"/>
+    </row>
+    <row r="94" spans="1:5" s="27" customFormat="1">
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+    </row>
+    <row r="95" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="7"/>
+    </row>
+    <row r="96" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1">
+      <c r="A96" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="8"/>
+    </row>
+    <row r="97" spans="1:3" s="6" customFormat="1" ht="72">
+      <c r="A97" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" s="39"/>
+    </row>
+    <row r="98" spans="1:3" s="6" customFormat="1">
+      <c r="A98" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="8"/>
+    </row>
+    <row r="99" spans="1:3" s="6" customFormat="1">
+      <c r="A99" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" s="8"/>
+    </row>
+    <row r="100" spans="1:3" s="6" customFormat="1" ht="302.39999999999998">
+      <c r="A100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" s="59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="6" customFormat="1">
+      <c r="A101" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="30"/>
+    </row>
+    <row r="102" spans="1:3" s="6" customFormat="1">
+      <c r="A102" s="5"/>
+      <c r="B102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="30"/>
+    </row>
+    <row r="103" spans="1:3" s="6" customFormat="1">
+      <c r="A103" s="5"/>
+      <c r="B103" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103" s="30"/>
+    </row>
+    <row r="104" spans="1:3" s="6" customFormat="1">
+      <c r="A104" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="8"/>
+    </row>
+    <row r="105" spans="1:3" s="6" customFormat="1">
+      <c r="A105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="8"/>
+    </row>
+    <row r="106" spans="1:3" s="45" customFormat="1">
+      <c r="B106" s="46"/>
+      <c r="C106" s="46"/>
+    </row>
+    <row r="107" spans="1:3" s="47" customFormat="1" ht="17.399999999999999">
+      <c r="B107" s="48"/>
+      <c r="C107" s="49"/>
+    </row>
+    <row r="108" spans="1:3" s="53" customFormat="1">
+      <c r="A108" s="50"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="52"/>
+    </row>
+    <row r="109" spans="1:3" s="53" customFormat="1">
+      <c r="A109" s="50"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="54"/>
+    </row>
+    <row r="110" spans="1:3" s="6" customFormat="1">
+      <c r="B110" s="10"/>
+      <c r="C110" s="8"/>
+    </row>
+    <row r="111" spans="1:3" s="6" customFormat="1">
+      <c r="B111" s="10"/>
+      <c r="C111" s="8"/>
+    </row>
+    <row r="112" spans="1:3" s="6" customFormat="1">
+      <c r="A112" s="5"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="31"/>
+    </row>
+    <row r="113" spans="1:3" s="6" customFormat="1">
+      <c r="A113" s="5"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="30"/>
+    </row>
+    <row r="114" spans="1:3" s="6" customFormat="1">
+      <c r="B114" s="10"/>
+      <c r="C114" s="8"/>
+    </row>
+    <row r="115" spans="1:3" s="6" customFormat="1">
+      <c r="B115" s="10"/>
+      <c r="C115" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C67" r:id="rId1"/>
+    <hyperlink ref="C13" r:id="rId2"/>
+    <hyperlink ref="C15" r:id="rId3"/>
+    <hyperlink ref="C16" r:id="rId4"/>
+    <hyperlink ref="C17" r:id="rId5"/>
+    <hyperlink ref="C18" r:id="rId6"/>
+    <hyperlink ref="C41" r:id="rId7"/>
+    <hyperlink ref="C42" r:id="rId8"/>
+    <hyperlink ref="C52" r:id="rId9"/>
+    <hyperlink ref="C55" r:id="rId10"/>
+    <hyperlink ref="C56" r:id="rId11"/>
+    <hyperlink ref="C57" r:id="rId12"/>
+    <hyperlink ref="C78" r:id="rId13"/>
+    <hyperlink ref="C89" r:id="rId14"/>
+    <hyperlink ref="E5" r:id="rId15"/>
+    <hyperlink ref="C90" r:id="rId16"/>
+    <hyperlink ref="E4" r:id="rId17"/>
+    <hyperlink ref="E3" r:id="rId18"/>
+    <hyperlink ref="C53" r:id="rId19"/>
+    <hyperlink ref="C54" r:id="rId20"/>
+    <hyperlink ref="C91" r:id="rId21"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
+++ b/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="589" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name=" Background and Preparation" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="158">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -687,6 +687,24 @@
   </si>
   <si>
     <t>4.4.46: Extra preceeding empty line for all paragraphs, JUST AS BEFORE! 4.4.47: Borders are OK, but extra preceeding empty line for all paragraphs. HERE TOO, THE SAME RESULT AS BEFORE</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/DE/test_4.4.74_75/output_actual/test_4.4.74_75.pef</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/FI/330040-1.pef</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/SE/XSLT/result_Dotify_XSLT.pef</t>
+  </si>
+  <si>
+    <t>SE (XSLT)</t>
+  </si>
+  <si>
+    <t>SE (CSS)</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/SE/CSS/Result_CSS.pef</t>
   </si>
 </sst>
 </file>
@@ -1386,9 +1404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2270,7 +2288,9 @@
       <c r="B101" t="s">
         <v>51</v>
       </c>
-      <c r="C101" s="30"/>
+      <c r="C101" s="30" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="102" spans="1:3" s="6" customFormat="1">
       <c r="A102" s="5"/>
@@ -2369,9 +2389,10 @@
     <hyperlink ref="C53" r:id="rId19"/>
     <hyperlink ref="C54" r:id="rId20"/>
     <hyperlink ref="C91" r:id="rId21"/>
+    <hyperlink ref="C101" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -2380,8 +2401,8 @@
   <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2446,7 +2467,7 @@
       <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="68">
+      <c r="B5" s="67">
         <v>42263</v>
       </c>
       <c r="C5" s="58" t="s">
@@ -3235,7 +3256,7 @@
       </c>
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="1:3" s="6" customFormat="1" ht="331.2">
+    <row r="100" spans="1:3" s="6" customFormat="1" ht="302.39999999999998">
       <c r="A100" s="5" t="s">
         <v>4</v>
       </c>
@@ -3375,11 +3396,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+      <pane ySplit="6" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3540,7 +3561,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1">
@@ -3865,496 +3886,503 @@
     </row>
     <row r="55" spans="1:3" s="6" customFormat="1">
       <c r="B55" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="6" customFormat="1">
       <c r="B56" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="6" customFormat="1">
       <c r="B57" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="6" customFormat="1">
+      <c r="B58" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C58" s="40" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" s="6" customFormat="1">
-      <c r="A58" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="8"/>
     </row>
     <row r="59" spans="1:3" s="6" customFormat="1">
       <c r="A59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="1:3" s="6" customFormat="1">
+      <c r="A60" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B60" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="8"/>
-    </row>
-    <row r="60" spans="1:3" s="27" customFormat="1">
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-    </row>
-    <row r="61" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
-      <c r="A61" s="4" t="s">
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:3" s="27" customFormat="1">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+    </row>
+    <row r="62" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A62" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="7"/>
-    </row>
-    <row r="62" spans="1:3" s="6" customFormat="1" ht="43.8" thickTop="1">
-      <c r="A62" s="5" t="s">
+      <c r="B62" s="11"/>
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" spans="1:3" s="6" customFormat="1" ht="43.8" thickTop="1">
+      <c r="A63" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B63" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="8"/>
-    </row>
-    <row r="63" spans="1:3" s="6" customFormat="1" ht="187.2">
-      <c r="A63" s="5" t="s">
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" spans="1:3" s="6" customFormat="1" ht="187.2">
+      <c r="A64" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B64" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="39"/>
-    </row>
-    <row r="64" spans="1:3" s="6" customFormat="1">
-      <c r="A64" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="8"/>
+      <c r="C64" s="39"/>
     </row>
     <row r="65" spans="1:3" s="6" customFormat="1">
       <c r="A65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="1:3" s="6" customFormat="1">
+      <c r="A66" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B66" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="8"/>
-    </row>
-    <row r="66" spans="1:3" s="6" customFormat="1" ht="172.8">
-      <c r="A66" s="5" t="s">
+      <c r="C66" s="8"/>
+    </row>
+    <row r="67" spans="1:3" s="6" customFormat="1" ht="172.8">
+      <c r="A67" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B67" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="59" t="s">
+      <c r="C67" s="59" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="6" customFormat="1">
-      <c r="A67" s="6" t="s">
+    <row r="68" spans="1:3" s="6" customFormat="1">
+      <c r="A68" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="57" t="s">
+      <c r="B68" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="C68" s="40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="6" customFormat="1">
-      <c r="B68" s="56" t="s">
+    <row r="69" spans="1:3" s="6" customFormat="1">
+      <c r="B69" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C69" s="55" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" s="6" customFormat="1">
-      <c r="A69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="8"/>
     </row>
     <row r="70" spans="1:3" s="6" customFormat="1">
       <c r="A70" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="1:3" s="27" customFormat="1">
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-    </row>
-    <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
-      <c r="A72" s="4" t="s">
+    <row r="71" spans="1:3" s="6" customFormat="1">
+      <c r="A71" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="8"/>
+    </row>
+    <row r="72" spans="1:3" s="27" customFormat="1">
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+    </row>
+    <row r="73" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A73" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="7"/>
-    </row>
-    <row r="73" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
-      <c r="A73" s="5" t="s">
+      <c r="B73" s="11"/>
+      <c r="C73" s="7"/>
+    </row>
+    <row r="74" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
+      <c r="A74" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B74" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="8"/>
-    </row>
-    <row r="74" spans="1:3" s="6" customFormat="1" ht="187.2">
-      <c r="A74" s="5" t="s">
+      <c r="C74" s="8"/>
+    </row>
+    <row r="75" spans="1:3" s="6" customFormat="1" ht="187.2">
+      <c r="A75" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B75" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C74" s="39"/>
-    </row>
-    <row r="75" spans="1:3" s="6" customFormat="1">
-      <c r="A75" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" s="8"/>
+      <c r="C75" s="39"/>
     </row>
     <row r="76" spans="1:3" s="6" customFormat="1">
       <c r="A76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="8"/>
+    </row>
+    <row r="77" spans="1:3" s="6" customFormat="1">
+      <c r="A77" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B77" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C76" s="8"/>
-    </row>
-    <row r="77" spans="1:3" s="6" customFormat="1" ht="201.6">
-      <c r="A77" s="5" t="s">
+      <c r="C77" s="8"/>
+    </row>
+    <row r="78" spans="1:3" s="6" customFormat="1" ht="201.6">
+      <c r="A78" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B78" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="59" t="s">
+      <c r="C78" s="59" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="6" customFormat="1">
-      <c r="A78" s="5" t="s">
+    <row r="79" spans="1:3" s="6" customFormat="1">
+      <c r="A79" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C79" s="30" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="6" customFormat="1">
-      <c r="A79" s="5"/>
-      <c r="B79" t="s">
+    <row r="80" spans="1:3" s="6" customFormat="1">
+      <c r="A80" s="5"/>
+      <c r="B80" t="s">
         <v>68</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C80" s="30" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" s="6" customFormat="1">
-      <c r="A80" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="8"/>
     </row>
     <row r="81" spans="1:5" s="6" customFormat="1">
       <c r="A81" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="1:5" s="27" customFormat="1">
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-    </row>
-    <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
-      <c r="A83" s="4" t="s">
+    <row r="82" spans="1:5" s="6" customFormat="1">
+      <c r="A82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="8"/>
+    </row>
+    <row r="83" spans="1:5" s="27" customFormat="1">
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+    </row>
+    <row r="84" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A84" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="7"/>
-    </row>
-    <row r="84" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1">
-      <c r="A84" s="5" t="s">
+      <c r="B84" s="11"/>
+      <c r="C84" s="7"/>
+    </row>
+    <row r="85" spans="1:5" s="6" customFormat="1" ht="29.4" thickTop="1">
+      <c r="A85" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B85" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="8"/>
-    </row>
-    <row r="85" spans="1:5" s="6" customFormat="1" ht="115.2">
-      <c r="A85" s="5" t="s">
+      <c r="C85" s="8"/>
+    </row>
+    <row r="86" spans="1:5" s="6" customFormat="1" ht="115.2">
+      <c r="A86" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B86" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C85" s="39"/>
-    </row>
-    <row r="86" spans="1:5" s="6" customFormat="1">
-      <c r="A86" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C86" s="8"/>
+      <c r="C86" s="39"/>
     </row>
     <row r="87" spans="1:5" s="6" customFormat="1">
       <c r="A87" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" s="6" customFormat="1">
+      <c r="A88" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B88" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C87" s="8"/>
-    </row>
-    <row r="88" spans="1:5" s="6" customFormat="1" ht="244.8">
-      <c r="A88" s="5" t="s">
+      <c r="C88" s="8"/>
+    </row>
+    <row r="89" spans="1:5" s="6" customFormat="1" ht="244.8">
+      <c r="A89" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B89" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="59" t="s">
+      <c r="C89" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="E88" s="63"/>
-    </row>
-    <row r="89" spans="1:5" s="6" customFormat="1">
-      <c r="A89" s="5" t="s">
+      <c r="E89" s="63"/>
+    </row>
+    <row r="90" spans="1:5" s="6" customFormat="1">
+      <c r="A90" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B90" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="C90" s="30" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="6" customFormat="1">
-      <c r="A90" s="5"/>
-      <c r="B90" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1">
       <c r="A91" s="5"/>
       <c r="B91" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="6" customFormat="1">
+      <c r="A92" s="5"/>
+      <c r="B92" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C91" s="30" t="s">
+      <c r="C92" s="30" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" s="6" customFormat="1">
-      <c r="A92" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="8"/>
     </row>
     <row r="93" spans="1:5" s="6" customFormat="1">
       <c r="A93" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="1:5" s="27" customFormat="1">
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-    </row>
-    <row r="95" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
-      <c r="A95" s="4" t="s">
+    <row r="94" spans="1:5" s="6" customFormat="1">
+      <c r="A94" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="8"/>
+    </row>
+    <row r="95" spans="1:5" s="27" customFormat="1">
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+    </row>
+    <row r="96" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
+      <c r="A96" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="7"/>
-    </row>
-    <row r="96" spans="1:5" s="6" customFormat="1" ht="15" thickTop="1">
-      <c r="A96" s="5" t="s">
+      <c r="B96" s="11"/>
+      <c r="C96" s="7"/>
+    </row>
+    <row r="97" spans="1:3" s="6" customFormat="1" ht="15" thickTop="1">
+      <c r="A97" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="44" t="s">
+      <c r="B97" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C96" s="8"/>
-    </row>
-    <row r="97" spans="1:3" s="6" customFormat="1" ht="72">
-      <c r="A97" s="5" t="s">
+      <c r="C97" s="8"/>
+    </row>
+    <row r="98" spans="1:3" s="6" customFormat="1" ht="72">
+      <c r="A98" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B98" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="39"/>
-    </row>
-    <row r="98" spans="1:3" s="6" customFormat="1">
-      <c r="A98" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C98" s="8"/>
+      <c r="C98" s="39"/>
     </row>
     <row r="99" spans="1:3" s="6" customFormat="1">
       <c r="A99" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="8"/>
+    </row>
+    <row r="100" spans="1:3" s="6" customFormat="1">
+      <c r="A100" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B100" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C99" s="8"/>
-    </row>
-    <row r="100" spans="1:3" s="6" customFormat="1" ht="302.39999999999998">
-      <c r="A100" s="5" t="s">
+      <c r="C100" s="8"/>
+    </row>
+    <row r="101" spans="1:3" s="6" customFormat="1" ht="302.39999999999998">
+      <c r="A101" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B101" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C100" s="59" t="s">
+      <c r="C101" s="59" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="6" customFormat="1">
-      <c r="A101" s="5" t="s">
+    <row r="102" spans="1:3" s="6" customFormat="1">
+      <c r="A102" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>51</v>
-      </c>
-      <c r="C101" s="30"/>
-    </row>
-    <row r="102" spans="1:3" s="6" customFormat="1">
-      <c r="A102" s="5"/>
-      <c r="B102" t="s">
-        <v>60</v>
       </c>
       <c r="C102" s="30"/>
     </row>
     <row r="103" spans="1:3" s="6" customFormat="1">
       <c r="A103" s="5"/>
       <c r="B103" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="30"/>
+    </row>
+    <row r="104" spans="1:3" s="6" customFormat="1">
+      <c r="A104" s="5"/>
+      <c r="B104" t="s">
         <v>61</v>
       </c>
-      <c r="C103" s="30"/>
-    </row>
-    <row r="104" spans="1:3" s="6" customFormat="1">
-      <c r="A104" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="8"/>
+      <c r="C104" s="30"/>
     </row>
     <row r="105" spans="1:3" s="6" customFormat="1">
       <c r="A105" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="1:3" s="45" customFormat="1">
-      <c r="B106" s="46"/>
-      <c r="C106" s="46"/>
-    </row>
-    <row r="107" spans="1:3" s="47" customFormat="1" ht="17.399999999999999">
-      <c r="B107" s="48"/>
-      <c r="C107" s="49"/>
-    </row>
-    <row r="108" spans="1:3" s="53" customFormat="1">
-      <c r="A108" s="50"/>
-      <c r="B108" s="51"/>
-      <c r="C108" s="52"/>
+    <row r="106" spans="1:3" s="6" customFormat="1">
+      <c r="A106" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="10"/>
+      <c r="C106" s="8"/>
+    </row>
+    <row r="107" spans="1:3" s="45" customFormat="1">
+      <c r="B107" s="46"/>
+      <c r="C107" s="46"/>
+    </row>
+    <row r="108" spans="1:3" s="47" customFormat="1" ht="17.399999999999999">
+      <c r="B108" s="48"/>
+      <c r="C108" s="49"/>
     </row>
     <row r="109" spans="1:3" s="53" customFormat="1">
       <c r="A109" s="50"/>
       <c r="B109" s="51"/>
-      <c r="C109" s="54"/>
-    </row>
-    <row r="110" spans="1:3" s="6" customFormat="1">
-      <c r="B110" s="10"/>
-      <c r="C110" s="8"/>
+      <c r="C109" s="52"/>
+    </row>
+    <row r="110" spans="1:3" s="53" customFormat="1">
+      <c r="A110" s="50"/>
+      <c r="B110" s="51"/>
+      <c r="C110" s="54"/>
     </row>
     <row r="111" spans="1:3" s="6" customFormat="1">
       <c r="B111" s="10"/>
       <c r="C111" s="8"/>
     </row>
     <row r="112" spans="1:3" s="6" customFormat="1">
-      <c r="A112" s="5"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="31"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="8"/>
     </row>
     <row r="113" spans="1:3" s="6" customFormat="1">
       <c r="A113" s="5"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="30"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="31"/>
     </row>
     <row r="114" spans="1:3" s="6" customFormat="1">
-      <c r="B114" s="10"/>
-      <c r="C114" s="8"/>
+      <c r="A114" s="5"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="30"/>
     </row>
     <row r="115" spans="1:3" s="6" customFormat="1">
       <c r="B115" s="10"/>
       <c r="C115" s="8"/>
     </row>
+    <row r="116" spans="1:3" s="6" customFormat="1">
+      <c r="B116" s="10"/>
+      <c r="C116" s="8"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C67" r:id="rId1"/>
+    <hyperlink ref="C68" r:id="rId1"/>
     <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="C15" r:id="rId3"/>
-    <hyperlink ref="C16" r:id="rId4"/>
-    <hyperlink ref="C17" r:id="rId5"/>
-    <hyperlink ref="C18" r:id="rId6"/>
-    <hyperlink ref="C41" r:id="rId7"/>
-    <hyperlink ref="C42" r:id="rId8"/>
-    <hyperlink ref="C52" r:id="rId9"/>
-    <hyperlink ref="C55" r:id="rId10"/>
-    <hyperlink ref="C56" r:id="rId11"/>
-    <hyperlink ref="C57" r:id="rId12"/>
-    <hyperlink ref="C78" r:id="rId13"/>
-    <hyperlink ref="C89" r:id="rId14"/>
-    <hyperlink ref="E5" r:id="rId15"/>
-    <hyperlink ref="C90" r:id="rId16"/>
-    <hyperlink ref="E4" r:id="rId17"/>
-    <hyperlink ref="E3" r:id="rId18"/>
-    <hyperlink ref="C53" r:id="rId19"/>
-    <hyperlink ref="C54" r:id="rId20"/>
-    <hyperlink ref="C91" r:id="rId21"/>
+    <hyperlink ref="C16" r:id="rId3"/>
+    <hyperlink ref="C17" r:id="rId4"/>
+    <hyperlink ref="C18" r:id="rId5"/>
+    <hyperlink ref="C41" r:id="rId6"/>
+    <hyperlink ref="C42" r:id="rId7"/>
+    <hyperlink ref="C52" r:id="rId8"/>
+    <hyperlink ref="C56" r:id="rId9"/>
+    <hyperlink ref="C57" r:id="rId10"/>
+    <hyperlink ref="C58" r:id="rId11"/>
+    <hyperlink ref="C79" r:id="rId12"/>
+    <hyperlink ref="C90" r:id="rId13"/>
+    <hyperlink ref="E5" r:id="rId14"/>
+    <hyperlink ref="C91" r:id="rId15"/>
+    <hyperlink ref="E4" r:id="rId16"/>
+    <hyperlink ref="E3" r:id="rId17"/>
+    <hyperlink ref="C53" r:id="rId18"/>
+    <hyperlink ref="C54" r:id="rId19"/>
+    <hyperlink ref="C92" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -4362,9 +4390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5297,8 +5325,8 @@
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
+      <pane ySplit="6" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -6234,8 +6262,8 @@
   <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B5"/>
+      <pane ySplit="6" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6828,10 +6856,10 @@
     </row>
     <row r="68" spans="1:3" s="6" customFormat="1">
       <c r="B68" s="56" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="6" customFormat="1">
@@ -7227,9 +7255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7824,10 +7852,10 @@
     </row>
     <row r="68" spans="1:3" s="6" customFormat="1">
       <c r="B68" s="56" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="6" customFormat="1">

--- a/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
+++ b/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="589" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="589" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name=" Background and Preparation" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="154">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -199,9 +199,6 @@
   <si>
     <t>The system shall support single and double line spacing. (4.4:74)
 When printing double-sided with line-spacing greater than 1, printed lines shall alternate on odd and even pages. (4.4:75)</t>
-  </si>
-  <si>
-    <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_2/SE/4.3.34%2C%204.3.41%2C%204.4.46%2C%204.4.47%2C%204.4.51/P20151.pef</t>
   </si>
   <si>
     <t>SE</t>
@@ -533,15 +530,6 @@
   </si>
   <si>
     <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_2/DE/4.4.55/test_preserve_whitespace.pef</t>
-  </si>
-  <si>
-    <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_1/FI/4.3.34/fi-uncontracted.pef</t>
-  </si>
-  <si>
-    <t>To be merged</t>
-  </si>
-  <si>
-    <t>https://github.com/snaekobbi/testing/blob/master/Test%20data/Sprint_2/NO/4.4.54%2C%204.4.55/Test.PEF.4.4.54-55.Whitespace.pef</t>
   </si>
   <si>
     <t>DK (uniform)</t>
@@ -1373,7 +1361,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18" thickBot="1">
@@ -1404,9 +1392,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1438,16 +1426,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="22" customFormat="1">
@@ -1455,16 +1443,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1">
@@ -1475,11 +1463,11 @@
         <v>42277</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="35" customFormat="1">
@@ -1537,10 +1525,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>88</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1">
@@ -1548,51 +1536,41 @@
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1">
       <c r="B14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>76</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1">
       <c r="B15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>133</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C15" s="40"/>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1">
       <c r="B16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="B17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C17" s="40"/>
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="B18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>65</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C18" s="40"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="6" t="s">
@@ -1608,7 +1586,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20"/>
     </row>
@@ -1618,7 +1596,7 @@
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="7"/>
@@ -1628,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="8"/>
     </row>
@@ -1637,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="39"/>
     </row>
@@ -1655,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="8"/>
     </row>
@@ -1664,10 +1642,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="6" customFormat="1">
@@ -1675,11 +1653,9 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>134</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C28" s="30"/>
     </row>
     <row r="29" spans="1:3" s="6" customFormat="1">
       <c r="A29" s="5"/>
@@ -1696,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C31" s="8"/>
     </row>
@@ -1752,10 +1728,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="6" customFormat="1">
@@ -1763,33 +1739,27 @@
         <v>5</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="40"/>
     </row>
     <row r="40" spans="1:3" s="6" customFormat="1">
       <c r="B40" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>79</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C40" s="40"/>
     </row>
     <row r="41" spans="1:3" s="6" customFormat="1">
       <c r="B41" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C41" s="40"/>
     </row>
     <row r="42" spans="1:3" s="6" customFormat="1">
       <c r="B42" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C42" s="40"/>
     </row>
     <row r="43" spans="1:3" s="6" customFormat="1">
       <c r="A43" s="6" t="s">
@@ -1803,7 +1773,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="8"/>
     </row>
@@ -1859,10 +1829,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="6" customFormat="1">
@@ -1870,51 +1840,41 @@
         <v>5</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="6" customFormat="1">
       <c r="B53" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>80</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C53" s="40"/>
     </row>
     <row r="54" spans="1:3" s="6" customFormat="1">
       <c r="B54" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="40" t="s">
         <v>81</v>
       </c>
+      <c r="C54" s="40"/>
     </row>
     <row r="55" spans="1:3" s="6" customFormat="1">
       <c r="B55" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C55" s="40"/>
     </row>
     <row r="56" spans="1:3" s="6" customFormat="1">
       <c r="B56" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C56" s="40"/>
     </row>
     <row r="57" spans="1:3" s="6" customFormat="1">
       <c r="B57" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>65</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C57" s="40"/>
     </row>
     <row r="58" spans="1:3" s="6" customFormat="1">
       <c r="A58" s="6" t="s">
@@ -1928,7 +1888,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" s="8"/>
     </row>
@@ -1984,10 +1944,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="6" customFormat="1">
@@ -1995,19 +1955,17 @@
         <v>5</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="6" customFormat="1">
       <c r="B68" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" s="55" t="s">
         <v>49</v>
       </c>
+      <c r="C68" s="55"/>
     </row>
     <row r="69" spans="1:3" s="6" customFormat="1">
       <c r="A69" s="6" t="s">
@@ -2021,7 +1979,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" s="8"/>
     </row>
@@ -2031,7 +1989,7 @@
     </row>
     <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A72" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="7"/>
@@ -2041,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="8"/>
     </row>
@@ -2050,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C74" s="39"/>
     </row>
@@ -2068,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C76" s="8"/>
     </row>
@@ -2077,10 +2035,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="C77" s="59" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="6" customFormat="1">
@@ -2088,20 +2046,16 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>135</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C78" s="30"/>
     </row>
     <row r="79" spans="1:3" s="6" customFormat="1">
       <c r="A79" s="5"/>
       <c r="B79" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>134</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C79" s="30"/>
     </row>
     <row r="80" spans="1:3" s="6" customFormat="1">
       <c r="A80" s="6" t="s">
@@ -2115,7 +2069,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C81" s="8"/>
     </row>
@@ -2125,7 +2079,7 @@
     </row>
     <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A83" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="7"/>
@@ -2135,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84" s="8"/>
     </row>
@@ -2144,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85" s="39"/>
     </row>
@@ -2162,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C87" s="8"/>
     </row>
@@ -2171,10 +2125,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E88" s="63"/>
     </row>
@@ -2183,29 +2137,25 @@
         <v>5</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>135</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C89" s="30"/>
     </row>
     <row r="90" spans="1:5" s="6" customFormat="1">
       <c r="A90" s="5"/>
       <c r="B90" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1">
       <c r="A91" s="5"/>
       <c r="B91" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>84</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C91" s="30"/>
     </row>
     <row r="92" spans="1:5" s="6" customFormat="1">
       <c r="A92" s="6" t="s">
@@ -2219,7 +2169,7 @@
         <v>7</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C93" s="8"/>
     </row>
@@ -2266,7 +2216,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C99" s="8"/>
     </row>
@@ -2275,10 +2225,10 @@
         <v>4</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="6" customFormat="1">
@@ -2286,23 +2236,23 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="6" customFormat="1">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C102" s="30"/>
     </row>
     <row r="103" spans="1:3" s="6" customFormat="1">
       <c r="A103" s="5"/>
       <c r="B103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C103" s="30"/>
     </row>
@@ -2318,7 +2268,7 @@
         <v>7</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="8"/>
     </row>
@@ -2370,29 +2320,15 @@
   <hyperlinks>
     <hyperlink ref="C67" r:id="rId1"/>
     <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="C15" r:id="rId3"/>
-    <hyperlink ref="C16" r:id="rId4"/>
-    <hyperlink ref="C17" r:id="rId5"/>
-    <hyperlink ref="C18" r:id="rId6"/>
-    <hyperlink ref="C41" r:id="rId7"/>
-    <hyperlink ref="C42" r:id="rId8"/>
-    <hyperlink ref="C52" r:id="rId9"/>
-    <hyperlink ref="C55" r:id="rId10"/>
-    <hyperlink ref="C56" r:id="rId11"/>
-    <hyperlink ref="C57" r:id="rId12"/>
-    <hyperlink ref="C78" r:id="rId13"/>
-    <hyperlink ref="C89" r:id="rId14"/>
-    <hyperlink ref="E5" r:id="rId15"/>
-    <hyperlink ref="C90" r:id="rId16"/>
-    <hyperlink ref="E4" r:id="rId17"/>
-    <hyperlink ref="E3" r:id="rId18"/>
-    <hyperlink ref="C53" r:id="rId19"/>
-    <hyperlink ref="C54" r:id="rId20"/>
-    <hyperlink ref="C91" r:id="rId21"/>
-    <hyperlink ref="C101" r:id="rId22"/>
+    <hyperlink ref="C52" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="C90" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="E3" r:id="rId7"/>
+    <hyperlink ref="C101" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -2401,8 +2337,8 @@
   <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="6" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2434,16 +2370,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="22" customFormat="1">
@@ -2451,16 +2387,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1">
@@ -2471,11 +2407,11 @@
         <v>42263</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="35" customFormat="1">
@@ -2533,10 +2469,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>88</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1">
@@ -2544,51 +2480,41 @@
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>129</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C13" s="40"/>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1">
       <c r="B14" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1">
       <c r="B15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>133</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C15" s="40"/>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1">
       <c r="B16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="B17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C17" s="40"/>
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="B18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>65</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C18" s="40"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1">
       <c r="A19" s="6" t="s">
@@ -2612,7 +2538,7 @@
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="7"/>
@@ -2622,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="8"/>
     </row>
@@ -2631,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="39"/>
     </row>
@@ -2649,7 +2575,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="8"/>
     </row>
@@ -2658,10 +2584,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="6" customFormat="1">
@@ -2669,11 +2595,9 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>134</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C28" s="30"/>
     </row>
     <row r="29" spans="1:3" s="6" customFormat="1">
       <c r="A29" s="5"/>
@@ -2744,10 +2668,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="6" customFormat="1">
@@ -2755,33 +2679,29 @@
         <v>5</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="40"/>
     </row>
     <row r="40" spans="1:3" s="6" customFormat="1">
       <c r="B40" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="6" customFormat="1">
       <c r="B41" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C41" s="40"/>
     </row>
     <row r="42" spans="1:3" s="6" customFormat="1">
       <c r="B42" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C42" s="40"/>
     </row>
     <row r="43" spans="1:3" s="6" customFormat="1">
       <c r="A43" s="6" t="s">
@@ -2849,10 +2769,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="6" customFormat="1">
@@ -2860,51 +2780,43 @@
         <v>5</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>129</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C52" s="40"/>
     </row>
     <row r="53" spans="1:3" s="6" customFormat="1">
       <c r="B53" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="6" customFormat="1">
       <c r="B54" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="6" customFormat="1">
       <c r="B55" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C55" s="40"/>
     </row>
     <row r="56" spans="1:3" s="6" customFormat="1">
       <c r="B56" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C56" s="40"/>
     </row>
     <row r="57" spans="1:3" s="6" customFormat="1">
       <c r="B57" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>65</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C57" s="40"/>
     </row>
     <row r="58" spans="1:3" s="6" customFormat="1">
       <c r="A58" s="6" t="s">
@@ -2972,10 +2884,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="6" customFormat="1">
@@ -2983,19 +2895,15 @@
         <v>5</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="40" t="s">
-        <v>131</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C67" s="40"/>
     </row>
     <row r="68" spans="1:3" s="6" customFormat="1">
       <c r="B68" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" s="55" t="s">
         <v>49</v>
       </c>
+      <c r="C68" s="55"/>
     </row>
     <row r="69" spans="1:3" s="6" customFormat="1">
       <c r="A69" s="6" t="s">
@@ -3017,7 +2925,7 @@
     </row>
     <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A72" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="7"/>
@@ -3027,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="8"/>
     </row>
@@ -3036,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C74" s="39"/>
     </row>
@@ -3054,7 +2962,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C76" s="8"/>
     </row>
@@ -3063,10 +2971,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="C77" s="59" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="6" customFormat="1">
@@ -3074,20 +2982,16 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>135</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C78" s="30"/>
     </row>
     <row r="79" spans="1:3" s="6" customFormat="1">
       <c r="A79" s="5"/>
       <c r="B79" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>134</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C79" s="30"/>
     </row>
     <row r="80" spans="1:3" s="6" customFormat="1">
       <c r="A80" s="6" t="s">
@@ -3109,7 +3013,7 @@
     </row>
     <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A83" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="7"/>
@@ -3119,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84" s="8"/>
     </row>
@@ -3128,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85" s="39"/>
     </row>
@@ -3146,7 +3050,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C87" s="8"/>
     </row>
@@ -3155,10 +3059,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E88" s="63"/>
     </row>
@@ -3167,28 +3071,24 @@
         <v>5</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>135</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C89" s="30"/>
     </row>
     <row r="90" spans="1:5" s="6" customFormat="1">
       <c r="A90" s="5"/>
       <c r="B90" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>132</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C90" s="30"/>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1">
       <c r="A91" s="5"/>
       <c r="B91" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="6" customFormat="1">
@@ -3196,7 +3096,7 @@
         <v>6</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C92" s="8"/>
     </row>
@@ -3205,7 +3105,7 @@
         <v>7</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C93" s="8"/>
     </row>
@@ -3252,7 +3152,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C99" s="8"/>
     </row>
@@ -3261,10 +3161,10 @@
         <v>4</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="6" customFormat="1">
@@ -3272,32 +3172,32 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C101" s="30"/>
     </row>
     <row r="102" spans="1:3" s="6" customFormat="1">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="6" customFormat="1">
       <c r="A103" s="5"/>
       <c r="B103" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="6" customFormat="1">
       <c r="A104" s="5"/>
       <c r="B104" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C104" s="30"/>
     </row>
@@ -3306,7 +3206,7 @@
         <v>6</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C105" s="8"/>
     </row>
@@ -3315,7 +3215,7 @@
         <v>7</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106" s="8"/>
     </row>
@@ -3365,32 +3265,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C67" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="C15" r:id="rId3"/>
-    <hyperlink ref="C16" r:id="rId4"/>
-    <hyperlink ref="C17" r:id="rId5"/>
-    <hyperlink ref="C18" r:id="rId6"/>
-    <hyperlink ref="C41" r:id="rId7"/>
-    <hyperlink ref="C42" r:id="rId8"/>
-    <hyperlink ref="C52" r:id="rId9"/>
-    <hyperlink ref="C55" r:id="rId10"/>
-    <hyperlink ref="C56" r:id="rId11"/>
-    <hyperlink ref="C57" r:id="rId12"/>
-    <hyperlink ref="C78" r:id="rId13"/>
-    <hyperlink ref="C89" r:id="rId14"/>
-    <hyperlink ref="E5" r:id="rId15"/>
-    <hyperlink ref="C90" r:id="rId16"/>
-    <hyperlink ref="E4" r:id="rId17"/>
-    <hyperlink ref="E3" r:id="rId18"/>
-    <hyperlink ref="C53" r:id="rId19"/>
-    <hyperlink ref="C54" r:id="rId20"/>
-    <hyperlink ref="C91" r:id="rId21"/>
-    <hyperlink ref="C102" r:id="rId22"/>
-    <hyperlink ref="C103" r:id="rId23"/>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="C53" r:id="rId4"/>
+    <hyperlink ref="C54" r:id="rId5"/>
+    <hyperlink ref="C91" r:id="rId6"/>
+    <hyperlink ref="C102" r:id="rId7"/>
+    <hyperlink ref="C103" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -3400,7 +3285,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
+      <selection pane="bottomLeft" activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3432,16 +3317,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="22" customFormat="1">
@@ -3449,16 +3334,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1">
@@ -3469,11 +3354,11 @@
         <v>42272</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="35" customFormat="1">
@@ -3531,10 +3416,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>88</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1">
@@ -3542,58 +3427,48 @@
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>129</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C13" s="40"/>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1">
       <c r="B14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>76</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1">
       <c r="B15" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1">
       <c r="B16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="B17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C17" s="40"/>
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="B18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>65</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C18" s="40"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" ht="144">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>38</v>
@@ -3604,7 +3479,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20"/>
     </row>
@@ -3614,7 +3489,7 @@
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="7"/>
@@ -3624,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="8"/>
     </row>
@@ -3633,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="39"/>
     </row>
@@ -3651,7 +3526,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="8"/>
     </row>
@@ -3660,10 +3535,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="6" customFormat="1">
@@ -3671,11 +3546,9 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>134</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C28" s="30"/>
     </row>
     <row r="29" spans="1:3" s="6" customFormat="1">
       <c r="A29" s="5"/>
@@ -3746,10 +3619,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="6" customFormat="1">
@@ -3757,33 +3630,27 @@
         <v>5</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="40"/>
     </row>
     <row r="40" spans="1:3" s="6" customFormat="1">
       <c r="B40" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>79</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C40" s="40"/>
     </row>
     <row r="41" spans="1:3" s="6" customFormat="1">
       <c r="B41" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C41" s="40"/>
     </row>
     <row r="42" spans="1:3" s="6" customFormat="1">
       <c r="B42" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C42" s="40"/>
     </row>
     <row r="43" spans="1:3" s="6" customFormat="1">
       <c r="A43" s="6" t="s">
@@ -3851,10 +3718,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="6" customFormat="1">
@@ -3862,66 +3729,54 @@
         <v>5</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>129</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C52" s="40"/>
     </row>
     <row r="53" spans="1:3" s="6" customFormat="1">
       <c r="B53" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>80</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C53" s="40"/>
     </row>
     <row r="54" spans="1:3" s="6" customFormat="1">
       <c r="B54" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="40" t="s">
         <v>81</v>
       </c>
+      <c r="C54" s="40"/>
     </row>
     <row r="55" spans="1:3" s="6" customFormat="1">
       <c r="B55" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="6" customFormat="1">
       <c r="B56" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C56" s="40"/>
     </row>
     <row r="57" spans="1:3" s="6" customFormat="1">
       <c r="B57" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C57" s="40"/>
     </row>
     <row r="58" spans="1:3" s="6" customFormat="1">
       <c r="B58" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>65</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C58" s="40"/>
     </row>
     <row r="59" spans="1:3" s="6" customFormat="1">
       <c r="A59" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C59" s="8"/>
     </row>
@@ -3930,7 +3785,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C60" s="8"/>
     </row>
@@ -3986,10 +3841,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="6" customFormat="1">
@@ -3997,19 +3852,15 @@
         <v>5</v>
       </c>
       <c r="B68" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" s="40" t="s">
-        <v>131</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C68" s="40"/>
     </row>
     <row r="69" spans="1:3" s="6" customFormat="1">
       <c r="B69" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="55" t="s">
         <v>49</v>
       </c>
+      <c r="C69" s="55"/>
     </row>
     <row r="70" spans="1:3" s="6" customFormat="1">
       <c r="A70" s="6" t="s">
@@ -4031,7 +3882,7 @@
     </row>
     <row r="73" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A73" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="7"/>
@@ -4041,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C74" s="8"/>
     </row>
@@ -4050,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C75" s="39"/>
     </row>
@@ -4068,7 +3919,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C77" s="8"/>
     </row>
@@ -4077,10 +3928,10 @@
         <v>4</v>
       </c>
       <c r="B78" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="C78" s="59" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="6" customFormat="1">
@@ -4088,20 +3939,16 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>135</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C79" s="30"/>
     </row>
     <row r="80" spans="1:3" s="6" customFormat="1">
       <c r="A80" s="5"/>
       <c r="B80" t="s">
-        <v>68</v>
-      </c>
-      <c r="C80" s="30" t="s">
-        <v>134</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C80" s="30"/>
     </row>
     <row r="81" spans="1:5" s="6" customFormat="1">
       <c r="A81" s="6" t="s">
@@ -4123,7 +3970,7 @@
     </row>
     <row r="84" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A84" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="7"/>
@@ -4133,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C85" s="8"/>
     </row>
@@ -4142,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C86" s="39"/>
     </row>
@@ -4160,7 +4007,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C88" s="8"/>
     </row>
@@ -4169,10 +4016,10 @@
         <v>4</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E89" s="63"/>
     </row>
@@ -4181,29 +4028,23 @@
         <v>5</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>135</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C90" s="30"/>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1">
       <c r="A91" s="5"/>
       <c r="B91" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>132</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C91" s="30"/>
     </row>
     <row r="92" spans="1:5" s="6" customFormat="1">
       <c r="A92" s="5"/>
       <c r="B92" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C92" s="30" t="s">
-        <v>84</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C92" s="30"/>
     </row>
     <row r="93" spans="1:5" s="6" customFormat="1">
       <c r="A93" s="6" t="s">
@@ -4262,7 +4103,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C100" s="8"/>
     </row>
@@ -4271,10 +4112,10 @@
         <v>4</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C101" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="6" customFormat="1">
@@ -4282,21 +4123,21 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C102" s="30"/>
     </row>
     <row r="103" spans="1:3" s="6" customFormat="1">
       <c r="A103" s="5"/>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C103" s="30"/>
     </row>
     <row r="104" spans="1:3" s="6" customFormat="1">
       <c r="A104" s="5"/>
       <c r="B104" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C104" s="30"/>
     </row>
@@ -4360,29 +4201,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C68" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="C16" r:id="rId3"/>
-    <hyperlink ref="C17" r:id="rId4"/>
-    <hyperlink ref="C18" r:id="rId5"/>
-    <hyperlink ref="C41" r:id="rId6"/>
-    <hyperlink ref="C42" r:id="rId7"/>
-    <hyperlink ref="C52" r:id="rId8"/>
-    <hyperlink ref="C56" r:id="rId9"/>
-    <hyperlink ref="C57" r:id="rId10"/>
-    <hyperlink ref="C58" r:id="rId11"/>
-    <hyperlink ref="C79" r:id="rId12"/>
-    <hyperlink ref="C90" r:id="rId13"/>
-    <hyperlink ref="E5" r:id="rId14"/>
-    <hyperlink ref="C91" r:id="rId15"/>
-    <hyperlink ref="E4" r:id="rId16"/>
-    <hyperlink ref="E3" r:id="rId17"/>
-    <hyperlink ref="C53" r:id="rId18"/>
-    <hyperlink ref="C54" r:id="rId19"/>
-    <hyperlink ref="C92" r:id="rId20"/>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4391,8 +4215,8 @@
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4424,16 +4248,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="22" customFormat="1">
@@ -4441,16 +4265,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1">
@@ -4461,11 +4285,11 @@
         <v>42264</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="35" customFormat="1">
@@ -4523,10 +4347,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>88</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1">
@@ -4534,37 +4358,37 @@
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="40"/>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1">
       <c r="B14" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1">
       <c r="B15" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="40"/>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1">
       <c r="B16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="B17" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="40"/>
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="B18" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="40"/>
     </row>
@@ -4573,10 +4397,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>100</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1">
@@ -4584,7 +4408,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20"/>
     </row>
@@ -4594,7 +4418,7 @@
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="7"/>
@@ -4604,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="8"/>
     </row>
@@ -4613,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="39"/>
     </row>
@@ -4631,10 +4455,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="6" customFormat="1" ht="201.6">
@@ -4642,10 +4466,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="6" customFormat="1">
@@ -4653,10 +4477,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="6" customFormat="1">
@@ -4674,7 +4498,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="8"/>
     </row>
@@ -4730,10 +4554,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="6" customFormat="1">
@@ -4741,25 +4565,25 @@
         <v>5</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="40"/>
     </row>
     <row r="40" spans="1:3" s="6" customFormat="1">
       <c r="B40" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="40"/>
     </row>
     <row r="41" spans="1:3" s="6" customFormat="1">
       <c r="B41" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="40"/>
     </row>
     <row r="42" spans="1:3" s="6" customFormat="1">
       <c r="B42" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="40"/>
     </row>
@@ -4829,10 +4653,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="6" customFormat="1">
@@ -4840,37 +4664,37 @@
         <v>5</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="40"/>
     </row>
     <row r="53" spans="1:3" s="6" customFormat="1">
       <c r="B53" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="40"/>
     </row>
     <row r="54" spans="1:3" s="6" customFormat="1">
       <c r="B54" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="40"/>
     </row>
     <row r="55" spans="1:3" s="6" customFormat="1">
       <c r="B55" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="40"/>
     </row>
     <row r="56" spans="1:3" s="6" customFormat="1">
       <c r="B56" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="40"/>
     </row>
     <row r="57" spans="1:3" s="6" customFormat="1">
       <c r="B57" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="40"/>
     </row>
@@ -4940,10 +4764,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="6" customFormat="1">
@@ -4951,13 +4775,13 @@
         <v>5</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C67" s="40"/>
     </row>
     <row r="68" spans="1:3" s="6" customFormat="1">
       <c r="B68" s="56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C68" s="55"/>
     </row>
@@ -4981,7 +4805,7 @@
     </row>
     <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A72" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="7"/>
@@ -4991,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="8"/>
     </row>
@@ -5000,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C74" s="39"/>
     </row>
@@ -5018,7 +4842,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C76" s="8"/>
     </row>
@@ -5027,10 +4851,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="C77" s="59" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="6" customFormat="1">
@@ -5038,17 +4862,17 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="30"/>
     </row>
     <row r="79" spans="1:3" s="6" customFormat="1">
       <c r="A79" s="5"/>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="6" customFormat="1">
@@ -5056,10 +4880,10 @@
         <v>6</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="6" customFormat="1">
@@ -5067,7 +4891,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="8"/>
     </row>
@@ -5077,7 +4901,7 @@
     </row>
     <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A83" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="7"/>
@@ -5087,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84" s="8"/>
     </row>
@@ -5096,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85" s="39"/>
     </row>
@@ -5114,7 +4938,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C87" s="8"/>
     </row>
@@ -5123,10 +4947,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E88" s="63"/>
     </row>
@@ -5135,21 +4959,21 @@
         <v>5</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C89" s="30"/>
     </row>
     <row r="90" spans="1:5" s="6" customFormat="1">
       <c r="A90" s="5"/>
       <c r="B90" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C90" s="30"/>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1">
       <c r="A91" s="5"/>
       <c r="B91" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C91" s="30"/>
     </row>
@@ -5210,7 +5034,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C99" s="8"/>
     </row>
@@ -5219,10 +5043,10 @@
         <v>4</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="6" customFormat="1">
@@ -5230,21 +5054,21 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C101" s="30"/>
     </row>
     <row r="102" spans="1:3" s="6" customFormat="1">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C102" s="30"/>
     </row>
     <row r="103" spans="1:3" s="6" customFormat="1">
       <c r="A103" s="5"/>
       <c r="B103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C103" s="30"/>
     </row>
@@ -5325,8 +5149,8 @@
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
+      <pane ySplit="6" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -5358,16 +5182,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="22" customFormat="1">
@@ -5375,16 +5199,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1">
@@ -5395,11 +5219,11 @@
         <v>42270</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="35" customFormat="1">
@@ -5457,10 +5281,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>88</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1">
@@ -5468,33 +5292,33 @@
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="40"/>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1">
       <c r="B14" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1">
       <c r="B15" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="40"/>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1">
       <c r="B16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="B17" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="40"/>
     </row>
@@ -5503,7 +5327,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="8"/>
     </row>
@@ -5512,7 +5336,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19"/>
     </row>
@@ -5522,7 +5346,7 @@
     </row>
     <row r="21" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="7"/>
@@ -5532,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="8"/>
     </row>
@@ -5541,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="39"/>
     </row>
@@ -5559,7 +5383,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="8"/>
     </row>
@@ -5568,10 +5392,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="6" customFormat="1">
@@ -5579,7 +5403,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="30"/>
     </row>
@@ -5652,10 +5476,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="6" customFormat="1">
@@ -5663,30 +5487,30 @@
         <v>5</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="40"/>
     </row>
     <row r="39" spans="1:3" s="6" customFormat="1">
       <c r="B39" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="40"/>
     </row>
     <row r="40" spans="1:3" s="6" customFormat="1">
       <c r="B40" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="6" customFormat="1">
       <c r="B41" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="6" customFormat="1">
@@ -5694,7 +5518,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="8"/>
     </row>
@@ -5703,7 +5527,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="8"/>
     </row>
@@ -5759,10 +5583,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="6" customFormat="1">
@@ -5770,41 +5594,41 @@
         <v>5</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="40"/>
     </row>
     <row r="52" spans="1:3" s="6" customFormat="1">
       <c r="B52" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="40"/>
     </row>
     <row r="53" spans="1:3" s="6" customFormat="1">
       <c r="B53" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="40"/>
     </row>
     <row r="54" spans="1:3" s="6" customFormat="1">
       <c r="B54" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="6" customFormat="1">
       <c r="B55" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="6" customFormat="1">
       <c r="B56" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="40"/>
     </row>
@@ -5813,7 +5637,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="8"/>
     </row>
@@ -5822,7 +5646,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" s="8"/>
     </row>
@@ -5878,10 +5702,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C65" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="6" customFormat="1">
@@ -5889,13 +5713,13 @@
         <v>5</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66" s="40"/>
     </row>
     <row r="67" spans="1:3" s="6" customFormat="1">
       <c r="B67" s="56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" s="55"/>
     </row>
@@ -5919,7 +5743,7 @@
     </row>
     <row r="71" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A71" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="7"/>
@@ -5929,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" s="8"/>
     </row>
@@ -5938,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C73" s="39"/>
     </row>
@@ -5956,7 +5780,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C75" s="8"/>
     </row>
@@ -5965,10 +5789,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="C76" s="59" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="6" customFormat="1">
@@ -5976,16 +5800,16 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="6" customFormat="1">
       <c r="A78" s="5"/>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C78" s="30"/>
     </row>
@@ -5999,7 +5823,7 @@
         <v>7</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" s="8"/>
     </row>
@@ -6009,7 +5833,7 @@
     </row>
     <row r="82" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A82" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="7"/>
@@ -6019,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C83" s="8"/>
     </row>
@@ -6028,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C84" s="39"/>
     </row>
@@ -6046,7 +5870,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C86" s="8"/>
     </row>
@@ -6055,10 +5879,10 @@
         <v>4</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E87" s="63"/>
     </row>
@@ -6067,23 +5891,23 @@
         <v>5</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="6" customFormat="1">
       <c r="A89" s="5"/>
       <c r="B89" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C89" s="30"/>
     </row>
     <row r="90" spans="1:5" s="6" customFormat="1">
       <c r="A90" s="5"/>
       <c r="B90" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C90" s="30"/>
     </row>
@@ -6099,7 +5923,7 @@
         <v>7</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C92" s="8"/>
     </row>
@@ -6146,7 +5970,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C98" s="8"/>
     </row>
@@ -6155,10 +5979,10 @@
         <v>4</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C99" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="6" customFormat="1">
@@ -6166,21 +5990,21 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C100" s="30"/>
     </row>
     <row r="101" spans="1:3" s="6" customFormat="1">
       <c r="A101" s="5"/>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C101" s="30"/>
     </row>
     <row r="102" spans="1:3" s="6" customFormat="1">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C102" s="30"/>
     </row>
@@ -6262,8 +6086,8 @@
   <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69:XFD69"/>
+      <pane ySplit="6" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6295,16 +6119,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="22" customFormat="1">
@@ -6312,16 +6136,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1">
@@ -6332,11 +6156,11 @@
         <v>42271</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="35" customFormat="1">
@@ -6394,10 +6218,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>88</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1">
@@ -6405,50 +6229,40 @@
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>129</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C13" s="40"/>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1">
       <c r="B14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>76</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1">
       <c r="B15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>133</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C15" s="40"/>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1">
       <c r="B16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="B17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C17" s="40"/>
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="B18" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1">
@@ -6465,7 +6279,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20"/>
     </row>
@@ -6475,7 +6289,7 @@
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="7"/>
@@ -6485,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="8"/>
     </row>
@@ -6494,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="39"/>
     </row>
@@ -6512,7 +6326,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="8"/>
     </row>
@@ -6521,10 +6335,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="6" customFormat="1">
@@ -6532,11 +6346,9 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>134</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C28" s="30"/>
     </row>
     <row r="29" spans="1:3" s="6" customFormat="1">
       <c r="A29" s="5"/>
@@ -6607,10 +6419,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="6" customFormat="1">
@@ -6618,33 +6430,27 @@
         <v>5</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="40"/>
     </row>
     <row r="40" spans="1:3" s="6" customFormat="1">
       <c r="B40" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>79</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C40" s="40"/>
     </row>
     <row r="41" spans="1:3" s="6" customFormat="1">
       <c r="B41" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C41" s="40"/>
     </row>
     <row r="42" spans="1:3" s="6" customFormat="1">
       <c r="B42" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C42" s="40"/>
     </row>
     <row r="43" spans="1:3" s="6" customFormat="1">
       <c r="A43" s="6" t="s">
@@ -6712,10 +6518,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="6" customFormat="1">
@@ -6723,50 +6529,40 @@
         <v>5</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>129</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C52" s="40"/>
     </row>
     <row r="53" spans="1:3" s="6" customFormat="1">
       <c r="B53" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>80</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C53" s="40"/>
     </row>
     <row r="54" spans="1:3" s="6" customFormat="1">
       <c r="B54" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="40" t="s">
         <v>81</v>
       </c>
+      <c r="C54" s="40"/>
     </row>
     <row r="55" spans="1:3" s="6" customFormat="1">
       <c r="B55" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C55" s="40"/>
     </row>
     <row r="56" spans="1:3" s="6" customFormat="1">
       <c r="B56" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C56" s="40"/>
     </row>
     <row r="57" spans="1:3" s="6" customFormat="1">
       <c r="B57" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="6" customFormat="1">
@@ -6781,7 +6577,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C59" s="8"/>
     </row>
@@ -6837,10 +6633,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="6" customFormat="1">
@@ -6848,18 +6644,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="40" t="s">
-        <v>131</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C67" s="40"/>
     </row>
     <row r="68" spans="1:3" s="6" customFormat="1">
       <c r="B68" s="56" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="6" customFormat="1">
@@ -6867,7 +6661,7 @@
         <v>6</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C69" s="8"/>
     </row>
@@ -6876,7 +6670,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C70" s="8"/>
     </row>
@@ -6886,7 +6680,7 @@
     </row>
     <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A72" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="7"/>
@@ -6896,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="8"/>
     </row>
@@ -6905,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C74" s="39"/>
     </row>
@@ -6923,7 +6717,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C76" s="8"/>
     </row>
@@ -6932,10 +6726,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="C77" s="59" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="6" customFormat="1">
@@ -6943,20 +6737,16 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>135</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C78" s="30"/>
     </row>
     <row r="79" spans="1:3" s="6" customFormat="1">
       <c r="A79" s="5"/>
       <c r="B79" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>134</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C79" s="30"/>
     </row>
     <row r="80" spans="1:3" s="6" customFormat="1">
       <c r="A80" s="6" t="s">
@@ -6978,7 +6768,7 @@
     </row>
     <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A83" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="7"/>
@@ -6988,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84" s="8"/>
     </row>
@@ -6997,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85" s="39"/>
     </row>
@@ -7015,7 +6805,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C87" s="8"/>
     </row>
@@ -7024,10 +6814,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E88" s="63"/>
     </row>
@@ -7036,29 +6826,23 @@
         <v>5</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>135</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C89" s="30"/>
     </row>
     <row r="90" spans="1:5" s="6" customFormat="1">
       <c r="A90" s="5"/>
       <c r="B90" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>132</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C90" s="30"/>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1">
       <c r="A91" s="5"/>
       <c r="B91" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>84</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C91" s="30"/>
     </row>
     <row r="92" spans="1:5" s="6" customFormat="1">
       <c r="A92" s="6" t="s">
@@ -7117,7 +6901,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C99" s="8"/>
     </row>
@@ -7126,10 +6910,10 @@
         <v>4</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="6" customFormat="1">
@@ -7137,21 +6921,21 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C101" s="30"/>
     </row>
     <row r="102" spans="1:3" s="6" customFormat="1">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C102" s="30"/>
     </row>
     <row r="103" spans="1:3" s="6" customFormat="1">
       <c r="A103" s="5"/>
       <c r="B103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C103" s="30"/>
     </row>
@@ -7160,7 +6944,7 @@
         <v>6</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C104" s="8"/>
     </row>
@@ -7169,7 +6953,7 @@
         <v>7</v>
       </c>
       <c r="B105" s="70" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C105" s="8"/>
     </row>
@@ -7224,30 +7008,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C67" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="C15" r:id="rId3"/>
-    <hyperlink ref="C16" r:id="rId4"/>
-    <hyperlink ref="C17" r:id="rId5"/>
-    <hyperlink ref="C18" r:id="rId6"/>
-    <hyperlink ref="C41" r:id="rId7"/>
-    <hyperlink ref="C42" r:id="rId8"/>
-    <hyperlink ref="C52" r:id="rId9"/>
-    <hyperlink ref="C55" r:id="rId10"/>
-    <hyperlink ref="C56" r:id="rId11"/>
-    <hyperlink ref="C57" r:id="rId12"/>
-    <hyperlink ref="C78" r:id="rId13"/>
-    <hyperlink ref="C89" r:id="rId14"/>
-    <hyperlink ref="E5" r:id="rId15"/>
-    <hyperlink ref="C90" r:id="rId16"/>
-    <hyperlink ref="E4" r:id="rId17"/>
-    <hyperlink ref="E3" r:id="rId18"/>
-    <hyperlink ref="C53" r:id="rId19"/>
-    <hyperlink ref="C54" r:id="rId20"/>
-    <hyperlink ref="C91" r:id="rId21"/>
+    <hyperlink ref="C18" r:id="rId1"/>
+    <hyperlink ref="C57" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -7255,9 +7023,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7289,16 +7057,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="22" customFormat="1">
@@ -7306,16 +7074,16 @@
         <v>11</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1">
@@ -7326,11 +7094,11 @@
         <v>42271</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="35" customFormat="1">
@@ -7388,10 +7156,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>88</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="6" customFormat="1">
@@ -7399,50 +7167,40 @@
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>129</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C13" s="40"/>
     </row>
     <row r="14" spans="1:5" s="6" customFormat="1">
       <c r="B14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>76</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:5" s="6" customFormat="1">
       <c r="B15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>133</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C15" s="40"/>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1">
       <c r="B16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1">
       <c r="B17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C17" s="40"/>
     </row>
     <row r="18" spans="1:3" s="6" customFormat="1">
       <c r="B18" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1">
@@ -7459,7 +7217,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20"/>
     </row>
@@ -7469,7 +7227,7 @@
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="7"/>
@@ -7479,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="8"/>
     </row>
@@ -7488,7 +7246,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="39"/>
     </row>
@@ -7506,7 +7264,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="8"/>
     </row>
@@ -7515,10 +7273,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="6" customFormat="1">
@@ -7526,11 +7284,9 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>134</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C28" s="30"/>
     </row>
     <row r="29" spans="1:3" s="6" customFormat="1">
       <c r="A29" s="5"/>
@@ -7601,10 +7357,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="6" customFormat="1">
@@ -7612,33 +7368,27 @@
         <v>5</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="40"/>
     </row>
     <row r="40" spans="1:3" s="6" customFormat="1">
       <c r="B40" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>79</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C40" s="40"/>
     </row>
     <row r="41" spans="1:3" s="6" customFormat="1">
       <c r="B41" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C41" s="40"/>
     </row>
     <row r="42" spans="1:3" s="6" customFormat="1">
       <c r="B42" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C42" s="40"/>
     </row>
     <row r="43" spans="1:3" s="6" customFormat="1">
       <c r="A43" s="6" t="s">
@@ -7706,10 +7456,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="6" customFormat="1">
@@ -7717,50 +7467,40 @@
         <v>5</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>129</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C52" s="40"/>
     </row>
     <row r="53" spans="1:3" s="6" customFormat="1">
       <c r="B53" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>80</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C53" s="40"/>
     </row>
     <row r="54" spans="1:3" s="6" customFormat="1">
       <c r="B54" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="40" t="s">
         <v>81</v>
       </c>
+      <c r="C54" s="40"/>
     </row>
     <row r="55" spans="1:3" s="6" customFormat="1">
       <c r="B55" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C55" s="40"/>
     </row>
     <row r="56" spans="1:3" s="6" customFormat="1">
       <c r="B56" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>64</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C56" s="40"/>
     </row>
     <row r="57" spans="1:3" s="6" customFormat="1">
       <c r="B57" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="6" customFormat="1">
@@ -7768,7 +7508,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C58" s="8"/>
     </row>
@@ -7777,7 +7517,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="70" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C59" s="8"/>
     </row>
@@ -7833,10 +7573,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="6" customFormat="1">
@@ -7844,18 +7584,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="40" t="s">
-        <v>131</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C67" s="40"/>
     </row>
     <row r="68" spans="1:3" s="6" customFormat="1">
       <c r="B68" s="56" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="6" customFormat="1">
@@ -7863,7 +7601,7 @@
         <v>6</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C69" s="8"/>
     </row>
@@ -7872,7 +7610,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C70" s="8"/>
     </row>
@@ -7882,7 +7620,7 @@
     </row>
     <row r="72" spans="1:3" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A72" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="7"/>
@@ -7892,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="8"/>
     </row>
@@ -7901,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C74" s="39"/>
     </row>
@@ -7919,7 +7657,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C76" s="8"/>
     </row>
@@ -7928,10 +7666,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="C77" s="59" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="6" customFormat="1">
@@ -7939,20 +7677,16 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>135</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C78" s="30"/>
     </row>
     <row r="79" spans="1:3" s="6" customFormat="1">
       <c r="A79" s="5"/>
       <c r="B79" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>134</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C79" s="30"/>
     </row>
     <row r="80" spans="1:3" s="6" customFormat="1">
       <c r="A80" s="6" t="s">
@@ -7974,7 +7708,7 @@
     </row>
     <row r="83" spans="1:5" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A83" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="7"/>
@@ -7984,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84" s="8"/>
     </row>
@@ -7993,7 +7727,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85" s="39"/>
     </row>
@@ -8011,7 +7745,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C87" s="8"/>
     </row>
@@ -8020,10 +7754,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E88" s="63"/>
     </row>
@@ -8032,29 +7766,23 @@
         <v>5</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>135</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C89" s="30"/>
     </row>
     <row r="90" spans="1:5" s="6" customFormat="1">
       <c r="A90" s="5"/>
       <c r="B90" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>132</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C90" s="30"/>
     </row>
     <row r="91" spans="1:5" s="6" customFormat="1">
       <c r="A91" s="5"/>
       <c r="B91" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>84</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C91" s="30"/>
     </row>
     <row r="92" spans="1:5" s="6" customFormat="1">
       <c r="A92" s="6" t="s">
@@ -8113,7 +7841,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C99" s="8"/>
     </row>
@@ -8122,10 +7850,10 @@
         <v>4</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="6" customFormat="1">
@@ -8133,21 +7861,21 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C101" s="30"/>
     </row>
     <row r="102" spans="1:3" s="6" customFormat="1">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C102" s="30"/>
     </row>
     <row r="103" spans="1:3" s="6" customFormat="1">
       <c r="A103" s="5"/>
       <c r="B103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C103" s="30"/>
     </row>
@@ -8211,29 +7939,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C67" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="C15" r:id="rId3"/>
-    <hyperlink ref="C16" r:id="rId4"/>
-    <hyperlink ref="C17" r:id="rId5"/>
-    <hyperlink ref="C18" r:id="rId6"/>
-    <hyperlink ref="C41" r:id="rId7"/>
-    <hyperlink ref="C42" r:id="rId8"/>
-    <hyperlink ref="C52" r:id="rId9"/>
-    <hyperlink ref="C55" r:id="rId10"/>
-    <hyperlink ref="C56" r:id="rId11"/>
-    <hyperlink ref="C57" r:id="rId12"/>
-    <hyperlink ref="C78" r:id="rId13"/>
-    <hyperlink ref="C89" r:id="rId14"/>
-    <hyperlink ref="E5" r:id="rId15"/>
-    <hyperlink ref="C90" r:id="rId16"/>
-    <hyperlink ref="E4" r:id="rId17"/>
-    <hyperlink ref="E3" r:id="rId18"/>
-    <hyperlink ref="C53" r:id="rId19"/>
-    <hyperlink ref="C54" r:id="rId20"/>
-    <hyperlink ref="C91" r:id="rId21"/>
+    <hyperlink ref="C18" r:id="rId1"/>
+    <hyperlink ref="C57" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
+++ b/Test protocol/Sprint_3/All Agencies/System Test protocol_Braille DP2_Sprint 3_ALL AGENCIES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="589" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="589" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name=" Background and Preparation" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="156">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -693,6 +693,12 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/SE/CSS/Result_CSS.pef</t>
+  </si>
+  <si>
+    <t>It looks otherwise good but in my brf file there is always two page breaks when there should be one. So the double sided becomes always one sided. The printed lines alternate though.</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -3283,9 +3289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4141,18 +4147,22 @@
       </c>
       <c r="C104" s="30"/>
     </row>
-    <row r="105" spans="1:3" s="6" customFormat="1">
+    <row r="105" spans="1:3" s="6" customFormat="1" ht="57.6">
       <c r="A105" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B105" s="10"/>
+      <c r="B105" s="38" t="s">
+        <v>154</v>
+      </c>
       <c r="C105" s="8"/>
     </row>
     <row r="106" spans="1:3" s="6" customFormat="1">
       <c r="A106" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B106" s="10"/>
+      <c r="B106" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="C106" s="8"/>
     </row>
     <row r="107" spans="1:3" s="45" customFormat="1">
@@ -5974,7 +5984,7 @@
       </c>
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="1:3" s="6" customFormat="1" ht="302.39999999999998">
+    <row r="99" spans="1:3" s="6" customFormat="1" ht="331.2">
       <c r="A99" s="5" t="s">
         <v>4</v>
       </c>
@@ -7023,9 +7033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
